--- a/docs/管理表/【勤怠管理システム】レビュー管理表.xlsx
+++ b/docs/管理表/【勤怠管理システム】レビュー管理表.xlsx
@@ -5,21 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyo\データ等\202010_勤怠管理システム\docs\管理表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="705" windowWidth="11115" windowHeight="8865" activeTab="2"/>
+    <workbookView xWindow="1395" yWindow="705" windowWidth="11115" windowHeight="8865" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
     <sheet name="更新履歴" sheetId="4" r:id="rId2"/>
     <sheet name="画面設計書" sheetId="7" r:id="rId3"/>
+    <sheet name="単体テスト仕様書" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">画面設計書!$A$4:$BC$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">単体テスト仕様書!$A$4:$BC$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -960,6 +962,334 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KK01001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目番号</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テスト仕様書</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月別一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ツキベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示する年月は、当月を含む過去12ヶ月分が正しい。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月はリンクではなくボタンの想定。</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月はリンクではなくボタンの想定。
+画面名は正しく記述する。</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KK03001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員一覧</t>
+    <rPh sb="0" eb="4">
+      <t>シャインイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示するデータの参照元を記載する。（何をもって全社員と判断するのか）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サンショウモト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ゼンシャイン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務報告書</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホウコクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空行が複数存在している。</t>
+    <rPh sb="0" eb="2">
+      <t>クウギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60～77</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どういう操作・状況で正しく表示されるのか記述する。</t>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認の操作自体は同じ内容（条件と結果は異なる）なので記述を揃える。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員IDとパスワードの確認はそれぞれ別のケースで行う。</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のケースと記述を揃える。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ソロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何をもって正しい画面表示なのか記述する。</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確定ボタン押下時にはチェック処理を行わない想定。</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11,12,31,32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17,18,23～26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタン以外のボタンは正常系として次画面遷移する想定。</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="18" eb="23">
+      <t>ジガメンセンイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取消ボタン押下時のケースが不足している。</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体的に記述を統一する。</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンタイテ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウイツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1438,7 +1768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1512,6 +1842,27 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1668,18 +2019,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1692,13 +2046,58 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2045,23 +2444,23 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
@@ -2082,21 +2481,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -2117,21 +2516,21 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -2257,25 +2656,25 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27" t="s">
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
@@ -2296,21 +2695,21 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
@@ -2469,29 +2868,29 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="31" t="s">
+      <c r="J16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29" t="s">
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="31" t="s">
+      <c r="R16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="29" t="s">
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
@@ -2512,29 +2911,29 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="30">
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="37">
         <v>44117</v>
       </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="28" t="s">
+      <c r="R17" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="30">
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="37">
         <v>44117</v>
       </c>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
@@ -2894,99 +3293,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="59" t="str">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="66" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="52" t="s">
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="52"/>
-      <c r="X1" s="51" t="str">
+      <c r="W1" s="59"/>
+      <c r="X1" s="58" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="51">
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="58">
         <f>表紙!M17</f>
         <v>44117</v>
       </c>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="52" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="52"/>
-      <c r="X2" s="51" t="str">
+      <c r="W2" s="59"/>
+      <c r="X2" s="58" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52" t="s">
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="51">
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="58">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
@@ -3087,682 +3486,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="37" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="36" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="36" t="s">
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="73"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="80"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="41">
+      <c r="B7" s="48">
         <v>1</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="38">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="45">
         <v>44117</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="46" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="65" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="67"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="74"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="67"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="74"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="66"/>
-      <c r="AE9" s="67"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="74"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="67"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="74"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="67"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="74"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="67"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="74"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="67"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="74"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="67"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="74"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="67"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="74"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="67"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="74"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="76"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="83"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="67"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="74"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="67"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="74"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="67"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="74"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="67"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="74"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="67"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="74"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="67"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="74"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="70"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="77"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -3935,9 +4334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG25" sqref="AG25:AZ25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4053,67 +4452,67 @@
       <c r="A4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50" t="s">
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="50"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
       <c r="BA4" s="15" t="s">
         <v>27</v>
       </c>
@@ -4129,67 +4528,67 @@
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="80" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="85" t="s">
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="85"/>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="85"/>
-      <c r="AU5" s="85"/>
-      <c r="AV5" s="85"/>
-      <c r="AW5" s="85"/>
-      <c r="AX5" s="85"/>
-      <c r="AY5" s="85"/>
-      <c r="AZ5" s="85"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="87"/>
+      <c r="AK5" s="87"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="87"/>
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="87"/>
+      <c r="AQ5" s="87"/>
+      <c r="AR5" s="87"/>
+      <c r="AS5" s="87"/>
+      <c r="AT5" s="87"/>
+      <c r="AU5" s="87"/>
+      <c r="AV5" s="87"/>
+      <c r="AW5" s="87"/>
+      <c r="AX5" s="87"/>
+      <c r="AY5" s="87"/>
+      <c r="AZ5" s="87"/>
       <c r="BA5" s="17">
         <v>44113</v>
       </c>
@@ -4205,67 +4604,67 @@
         <f t="shared" ref="A6:A26" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79" t="s">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79" t="s">
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="80" t="s">
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="85" t="s">
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="85"/>
-      <c r="AO6" s="85"/>
-      <c r="AP6" s="85"/>
-      <c r="AQ6" s="85"/>
-      <c r="AR6" s="85"/>
-      <c r="AS6" s="85"/>
-      <c r="AT6" s="85"/>
-      <c r="AU6" s="85"/>
-      <c r="AV6" s="85"/>
-      <c r="AW6" s="85"/>
-      <c r="AX6" s="85"/>
-      <c r="AY6" s="85"/>
-      <c r="AZ6" s="85"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="87"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="87"/>
+      <c r="AR6" s="87"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
+      <c r="AU6" s="87"/>
+      <c r="AV6" s="87"/>
+      <c r="AW6" s="87"/>
+      <c r="AX6" s="87"/>
+      <c r="AY6" s="87"/>
+      <c r="AZ6" s="87"/>
       <c r="BA6" s="17">
         <v>44113</v>
       </c>
@@ -4281,67 +4680,67 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="80" t="s">
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="85" t="s">
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="85"/>
-      <c r="AN7" s="85"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="85"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="85"/>
-      <c r="AT7" s="85"/>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="85"/>
-      <c r="AW7" s="85"/>
-      <c r="AX7" s="85"/>
-      <c r="AY7" s="85"/>
-      <c r="AZ7" s="85"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87"/>
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="87"/>
+      <c r="AW7" s="87"/>
+      <c r="AX7" s="87"/>
+      <c r="AY7" s="87"/>
+      <c r="AZ7" s="87"/>
       <c r="BA7" s="17">
         <v>44113</v>
       </c>
@@ -4357,67 +4756,67 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79" t="s">
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="80" t="s">
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="80"/>
-      <c r="AF8" s="80"/>
-      <c r="AG8" s="85" t="s">
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="85"/>
-      <c r="AZ8" s="85"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="87"/>
+      <c r="AX8" s="87"/>
+      <c r="AY8" s="87"/>
+      <c r="AZ8" s="87"/>
       <c r="BA8" s="17">
         <v>44113</v>
       </c>
@@ -4433,67 +4832,67 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79" t="s">
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="80" t="s">
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80" t="s">
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="85"/>
-      <c r="AN9" s="85"/>
-      <c r="AO9" s="85"/>
-      <c r="AP9" s="85"/>
-      <c r="AQ9" s="85"/>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="85"/>
-      <c r="AT9" s="85"/>
-      <c r="AU9" s="85"/>
-      <c r="AV9" s="85"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="85"/>
-      <c r="AY9" s="85"/>
-      <c r="AZ9" s="85"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="87"/>
+      <c r="AZ9" s="87"/>
       <c r="BA9" s="17">
         <v>44113</v>
       </c>
@@ -4509,67 +4908,67 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="80" t="s">
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="80"/>
-      <c r="AF10" s="80"/>
-      <c r="AG10" s="80" t="s">
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="85"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="85"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="85"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="85"/>
-      <c r="AT10" s="85"/>
-      <c r="AU10" s="85"/>
-      <c r="AV10" s="85"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="85"/>
-      <c r="AY10" s="85"/>
-      <c r="AZ10" s="85"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
       <c r="BA10" s="17">
         <v>44113</v>
       </c>
@@ -4585,67 +4984,67 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79" t="s">
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80" t="s">
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="80"/>
-      <c r="AF11" s="80"/>
-      <c r="AG11" s="85" t="s">
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="AH11" s="85"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="85"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="85"/>
-      <c r="AM11" s="85"/>
-      <c r="AN11" s="85"/>
-      <c r="AO11" s="85"/>
-      <c r="AP11" s="85"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="85"/>
-      <c r="AT11" s="85"/>
-      <c r="AU11" s="85"/>
-      <c r="AV11" s="85"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="85"/>
-      <c r="AY11" s="85"/>
-      <c r="AZ11" s="85"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="87"/>
+      <c r="AS11" s="87"/>
+      <c r="AT11" s="87"/>
+      <c r="AU11" s="87"/>
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AX11" s="87"/>
+      <c r="AY11" s="87"/>
+      <c r="AZ11" s="87"/>
       <c r="BA11" s="17">
         <v>44113</v>
       </c>
@@ -4661,67 +5060,67 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79" t="s">
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80" t="s">
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="80"/>
-      <c r="AE12" s="80"/>
-      <c r="AF12" s="80"/>
-      <c r="AG12" s="85" t="s">
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="85"/>
-      <c r="AM12" s="85"/>
-      <c r="AN12" s="85"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="85"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="85"/>
-      <c r="AT12" s="85"/>
-      <c r="AU12" s="85"/>
-      <c r="AV12" s="85"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="85"/>
-      <c r="AY12" s="85"/>
-      <c r="AZ12" s="85"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="87"/>
+      <c r="AS12" s="87"/>
+      <c r="AT12" s="87"/>
+      <c r="AU12" s="87"/>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="87"/>
+      <c r="AX12" s="87"/>
+      <c r="AY12" s="87"/>
+      <c r="AZ12" s="87"/>
       <c r="BA12" s="17">
         <v>44113</v>
       </c>
@@ -4737,67 +5136,67 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79" t="s">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79" t="s">
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="80" t="s">
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="80"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="80"/>
-      <c r="AE13" s="80"/>
-      <c r="AF13" s="80"/>
-      <c r="AG13" s="85" t="s">
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="85"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="85"/>
-      <c r="AM13" s="85"/>
-      <c r="AN13" s="85"/>
-      <c r="AO13" s="85"/>
-      <c r="AP13" s="85"/>
-      <c r="AQ13" s="85"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="85"/>
-      <c r="AT13" s="85"/>
-      <c r="AU13" s="85"/>
-      <c r="AV13" s="85"/>
-      <c r="AW13" s="85"/>
-      <c r="AX13" s="85"/>
-      <c r="AY13" s="85"/>
-      <c r="AZ13" s="85"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="87"/>
+      <c r="AT13" s="87"/>
+      <c r="AU13" s="87"/>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="87"/>
+      <c r="AX13" s="87"/>
+      <c r="AY13" s="87"/>
+      <c r="AZ13" s="87"/>
       <c r="BA13" s="17">
         <v>44113</v>
       </c>
@@ -4813,67 +5212,67 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79" t="s">
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="80" t="s">
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="85" t="s">
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="85"/>
-      <c r="AK14" s="85"/>
-      <c r="AL14" s="85"/>
-      <c r="AM14" s="85"/>
-      <c r="AN14" s="85"/>
-      <c r="AO14" s="85"/>
-      <c r="AP14" s="85"/>
-      <c r="AQ14" s="85"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="85"/>
-      <c r="AT14" s="85"/>
-      <c r="AU14" s="85"/>
-      <c r="AV14" s="85"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="85"/>
-      <c r="AY14" s="85"/>
-      <c r="AZ14" s="85"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="87"/>
+      <c r="AU14" s="87"/>
+      <c r="AV14" s="87"/>
+      <c r="AW14" s="87"/>
+      <c r="AX14" s="87"/>
+      <c r="AY14" s="87"/>
+      <c r="AZ14" s="87"/>
       <c r="BA14" s="17">
         <v>44113</v>
       </c>
@@ -4889,67 +5288,67 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79" t="s">
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="80" t="s">
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="85" t="s">
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="85"/>
-      <c r="AJ15" s="85"/>
-      <c r="AK15" s="85"/>
-      <c r="AL15" s="85"/>
-      <c r="AM15" s="85"/>
-      <c r="AN15" s="85"/>
-      <c r="AO15" s="85"/>
-      <c r="AP15" s="85"/>
-      <c r="AQ15" s="85"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="85"/>
-      <c r="AT15" s="85"/>
-      <c r="AU15" s="85"/>
-      <c r="AV15" s="85"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="85"/>
-      <c r="AY15" s="85"/>
-      <c r="AZ15" s="85"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="87"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="87"/>
+      <c r="AX15" s="87"/>
+      <c r="AY15" s="87"/>
+      <c r="AZ15" s="87"/>
       <c r="BA15" s="17">
         <v>44113</v>
       </c>
@@ -4965,67 +5364,67 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79" t="s">
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="80" t="s">
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="85" t="s">
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="86"/>
+      <c r="AG16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="85"/>
-      <c r="AK16" s="85"/>
-      <c r="AL16" s="85"/>
-      <c r="AM16" s="85"/>
-      <c r="AN16" s="85"/>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="85"/>
-      <c r="AQ16" s="85"/>
-      <c r="AR16" s="85"/>
-      <c r="AS16" s="85"/>
-      <c r="AT16" s="85"/>
-      <c r="AU16" s="85"/>
-      <c r="AV16" s="85"/>
-      <c r="AW16" s="85"/>
-      <c r="AX16" s="85"/>
-      <c r="AY16" s="85"/>
-      <c r="AZ16" s="85"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="87"/>
+      <c r="AZ16" s="87"/>
       <c r="BA16" s="17">
         <v>44113</v>
       </c>
@@ -5041,67 +5440,67 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79" t="s">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79" t="s">
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="80" t="s">
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="80"/>
-      <c r="AF17" s="80"/>
-      <c r="AG17" s="86" t="s">
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="86"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="86"/>
+      <c r="AF17" s="86"/>
+      <c r="AG17" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="85"/>
-      <c r="AK17" s="85"/>
-      <c r="AL17" s="85"/>
-      <c r="AM17" s="85"/>
-      <c r="AN17" s="85"/>
-      <c r="AO17" s="85"/>
-      <c r="AP17" s="85"/>
-      <c r="AQ17" s="85"/>
-      <c r="AR17" s="85"/>
-      <c r="AS17" s="85"/>
-      <c r="AT17" s="85"/>
-      <c r="AU17" s="85"/>
-      <c r="AV17" s="85"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="85"/>
-      <c r="AY17" s="85"/>
-      <c r="AZ17" s="85"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="87"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="87"/>
+      <c r="AU17" s="87"/>
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87"/>
+      <c r="AY17" s="87"/>
+      <c r="AZ17" s="87"/>
       <c r="BA17" s="17">
         <v>44113</v>
       </c>
@@ -5117,67 +5516,67 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79" t="s">
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="80" t="s">
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="80"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="85" t="s">
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="85"/>
-      <c r="AL18" s="85"/>
-      <c r="AM18" s="85"/>
-      <c r="AN18" s="85"/>
-      <c r="AO18" s="85"/>
-      <c r="AP18" s="85"/>
-      <c r="AQ18" s="85"/>
-      <c r="AR18" s="85"/>
-      <c r="AS18" s="85"/>
-      <c r="AT18" s="85"/>
-      <c r="AU18" s="85"/>
-      <c r="AV18" s="85"/>
-      <c r="AW18" s="85"/>
-      <c r="AX18" s="85"/>
-      <c r="AY18" s="85"/>
-      <c r="AZ18" s="85"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="87"/>
+      <c r="AM18" s="87"/>
+      <c r="AN18" s="87"/>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="87"/>
+      <c r="AS18" s="87"/>
+      <c r="AT18" s="87"/>
+      <c r="AU18" s="87"/>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="87"/>
+      <c r="AY18" s="87"/>
+      <c r="AZ18" s="87"/>
       <c r="BA18" s="17">
         <v>44117</v>
       </c>
@@ -5193,67 +5592,67 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79" t="s">
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="80" t="s">
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="80"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="80"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="80"/>
-      <c r="AC19" s="80"/>
-      <c r="AD19" s="80"/>
-      <c r="AE19" s="80"/>
-      <c r="AF19" s="80"/>
-      <c r="AG19" s="85" t="s">
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="AH19" s="85"/>
-      <c r="AI19" s="85"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="85"/>
-      <c r="AM19" s="85"/>
-      <c r="AN19" s="85"/>
-      <c r="AO19" s="85"/>
-      <c r="AP19" s="85"/>
-      <c r="AQ19" s="85"/>
-      <c r="AR19" s="85"/>
-      <c r="AS19" s="85"/>
-      <c r="AT19" s="85"/>
-      <c r="AU19" s="85"/>
-      <c r="AV19" s="85"/>
-      <c r="AW19" s="85"/>
-      <c r="AX19" s="85"/>
-      <c r="AY19" s="85"/>
-      <c r="AZ19" s="85"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="87"/>
+      <c r="AU19" s="87"/>
+      <c r="AV19" s="87"/>
+      <c r="AW19" s="87"/>
+      <c r="AX19" s="87"/>
+      <c r="AY19" s="87"/>
+      <c r="AZ19" s="87"/>
       <c r="BA19" s="17">
         <v>44117</v>
       </c>
@@ -5269,67 +5668,67 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79" t="s">
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79" t="s">
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="80" t="s">
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="80"/>
-      <c r="AF20" s="80"/>
-      <c r="AG20" s="85" t="s">
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="AH20" s="85"/>
-      <c r="AI20" s="85"/>
-      <c r="AJ20" s="85"/>
-      <c r="AK20" s="85"/>
-      <c r="AL20" s="85"/>
-      <c r="AM20" s="85"/>
-      <c r="AN20" s="85"/>
-      <c r="AO20" s="85"/>
-      <c r="AP20" s="85"/>
-      <c r="AQ20" s="85"/>
-      <c r="AR20" s="85"/>
-      <c r="AS20" s="85"/>
-      <c r="AT20" s="85"/>
-      <c r="AU20" s="85"/>
-      <c r="AV20" s="85"/>
-      <c r="AW20" s="85"/>
-      <c r="AX20" s="85"/>
-      <c r="AY20" s="85"/>
-      <c r="AZ20" s="85"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="87"/>
+      <c r="AL20" s="87"/>
+      <c r="AM20" s="87"/>
+      <c r="AN20" s="87"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
+      <c r="AQ20" s="87"/>
+      <c r="AR20" s="87"/>
+      <c r="AS20" s="87"/>
+      <c r="AT20" s="87"/>
+      <c r="AU20" s="87"/>
+      <c r="AV20" s="87"/>
+      <c r="AW20" s="87"/>
+      <c r="AX20" s="87"/>
+      <c r="AY20" s="87"/>
+      <c r="AZ20" s="87"/>
       <c r="BA20" s="24">
         <v>44117</v>
       </c>
@@ -5345,67 +5744,67 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79" t="s">
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79" t="s">
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80" t="s">
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="80"/>
-      <c r="AF21" s="80"/>
-      <c r="AG21" s="85" t="s">
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="AH21" s="85"/>
-      <c r="AI21" s="85"/>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="85"/>
-      <c r="AM21" s="85"/>
-      <c r="AN21" s="85"/>
-      <c r="AO21" s="85"/>
-      <c r="AP21" s="85"/>
-      <c r="AQ21" s="85"/>
-      <c r="AR21" s="85"/>
-      <c r="AS21" s="85"/>
-      <c r="AT21" s="85"/>
-      <c r="AU21" s="85"/>
-      <c r="AV21" s="85"/>
-      <c r="AW21" s="85"/>
-      <c r="AX21" s="85"/>
-      <c r="AY21" s="85"/>
-      <c r="AZ21" s="85"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="87"/>
+      <c r="AT21" s="87"/>
+      <c r="AU21" s="87"/>
+      <c r="AV21" s="87"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="87"/>
+      <c r="AZ21" s="87"/>
       <c r="BA21" s="17">
         <v>44117</v>
       </c>
@@ -5421,67 +5820,67 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79" t="s">
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79" t="s">
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="80" t="s">
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="80"/>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="80"/>
-      <c r="AE22" s="80"/>
-      <c r="AF22" s="80"/>
-      <c r="AG22" s="85" t="s">
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="85"/>
-      <c r="AM22" s="85"/>
-      <c r="AN22" s="85"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="85"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="85"/>
-      <c r="AY22" s="85"/>
-      <c r="AZ22" s="85"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="87"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="87"/>
+      <c r="AL22" s="87"/>
+      <c r="AM22" s="87"/>
+      <c r="AN22" s="87"/>
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="87"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="87"/>
+      <c r="AS22" s="87"/>
+      <c r="AT22" s="87"/>
+      <c r="AU22" s="87"/>
+      <c r="AV22" s="87"/>
+      <c r="AW22" s="87"/>
+      <c r="AX22" s="87"/>
+      <c r="AY22" s="87"/>
+      <c r="AZ22" s="87"/>
       <c r="BA22" s="17">
         <v>44117</v>
       </c>
@@ -5497,67 +5896,67 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79" t="s">
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79" t="s">
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="80" t="s">
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="80"/>
-      <c r="AB23" s="80"/>
-      <c r="AC23" s="80"/>
-      <c r="AD23" s="80"/>
-      <c r="AE23" s="80"/>
-      <c r="AF23" s="80"/>
-      <c r="AG23" s="84" t="s">
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="AH23" s="82"/>
-      <c r="AI23" s="82"/>
-      <c r="AJ23" s="82"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="82"/>
-      <c r="AM23" s="82"/>
-      <c r="AN23" s="82"/>
-      <c r="AO23" s="82"/>
-      <c r="AP23" s="82"/>
-      <c r="AQ23" s="82"/>
-      <c r="AR23" s="82"/>
-      <c r="AS23" s="82"/>
-      <c r="AT23" s="82"/>
-      <c r="AU23" s="82"/>
-      <c r="AV23" s="82"/>
-      <c r="AW23" s="82"/>
-      <c r="AX23" s="82"/>
-      <c r="AY23" s="82"/>
-      <c r="AZ23" s="83"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="90"/>
+      <c r="AK23" s="90"/>
+      <c r="AL23" s="90"/>
+      <c r="AM23" s="90"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="90"/>
+      <c r="AU23" s="90"/>
+      <c r="AV23" s="90"/>
+      <c r="AW23" s="90"/>
+      <c r="AX23" s="90"/>
+      <c r="AY23" s="90"/>
+      <c r="AZ23" s="91"/>
       <c r="BA23" s="17">
         <v>44117</v>
       </c>
@@ -5573,67 +5972,67 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79" t="s">
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79" t="s">
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="80" t="s">
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="80"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="80"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="80"/>
-      <c r="AB24" s="80"/>
-      <c r="AC24" s="80"/>
-      <c r="AD24" s="80"/>
-      <c r="AE24" s="80"/>
-      <c r="AF24" s="80"/>
-      <c r="AG24" s="81" t="s">
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="86"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="82"/>
-      <c r="AP24" s="82"/>
-      <c r="AQ24" s="82"/>
-      <c r="AR24" s="82"/>
-      <c r="AS24" s="82"/>
-      <c r="AT24" s="82"/>
-      <c r="AU24" s="82"/>
-      <c r="AV24" s="82"/>
-      <c r="AW24" s="82"/>
-      <c r="AX24" s="82"/>
-      <c r="AY24" s="82"/>
-      <c r="AZ24" s="83"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="90"/>
+      <c r="AM24" s="90"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="90"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="90"/>
+      <c r="AY24" s="90"/>
+      <c r="AZ24" s="91"/>
       <c r="BA24" s="17">
         <v>44117</v>
       </c>
@@ -5649,65 +6048,65 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="44" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44" t="s">
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="77" t="s">
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="77"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="45"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="45"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="45"/>
-      <c r="AU25" s="45"/>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="88"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="88"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="52"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="52"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
       <c r="BA25" s="13">
         <v>44118</v>
       </c>
@@ -5719,65 +6118,65 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="44" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44" t="s">
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="77" t="s">
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="77"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="45"/>
-      <c r="AX26" s="45"/>
-      <c r="AY26" s="45"/>
-      <c r="AZ26" s="45"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="88"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="88"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="52"/>
+      <c r="AO26" s="52"/>
+      <c r="AP26" s="52"/>
+      <c r="AQ26" s="52"/>
+      <c r="AR26" s="52"/>
+      <c r="AS26" s="52"/>
+      <c r="AT26" s="52"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="52"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="52"/>
       <c r="BA26" s="13">
         <v>44118</v>
       </c>
@@ -5786,456 +6185,456 @@
     </row>
     <row r="27" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="77"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="45"/>
-      <c r="AX27" s="45"/>
-      <c r="AY27" s="45"/>
-      <c r="AZ27" s="45"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="88"/>
+      <c r="AD27" s="88"/>
+      <c r="AE27" s="88"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="52"/>
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
       <c r="BC27" s="10"/>
     </row>
     <row r="28" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="77"/>
-      <c r="X28" s="77"/>
-      <c r="Y28" s="77"/>
-      <c r="Z28" s="77"/>
-      <c r="AA28" s="77"/>
-      <c r="AB28" s="77"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="77"/>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="77"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="45"/>
-      <c r="AQ28" s="45"/>
-      <c r="AR28" s="45"/>
-      <c r="AS28" s="45"/>
-      <c r="AT28" s="45"/>
-      <c r="AU28" s="45"/>
-      <c r="AV28" s="45"/>
-      <c r="AW28" s="45"/>
-      <c r="AX28" s="45"/>
-      <c r="AY28" s="45"/>
-      <c r="AZ28" s="45"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="88"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="88"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
+      <c r="AO28" s="52"/>
+      <c r="AP28" s="52"/>
+      <c r="AQ28" s="52"/>
+      <c r="AR28" s="52"/>
+      <c r="AS28" s="52"/>
+      <c r="AT28" s="52"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="52"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="52"/>
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
       <c r="BC28" s="10"/>
     </row>
     <row r="29" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="20"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="77"/>
-      <c r="W29" s="77"/>
-      <c r="X29" s="77"/>
-      <c r="Y29" s="77"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
-      <c r="AD29" s="77"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="45"/>
-      <c r="AK29" s="45"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="45"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="45"/>
-      <c r="AX29" s="45"/>
-      <c r="AY29" s="45"/>
-      <c r="AZ29" s="45"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
+      <c r="AO29" s="52"/>
+      <c r="AP29" s="52"/>
+      <c r="AQ29" s="52"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="52"/>
+      <c r="AT29" s="52"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="52"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="52"/>
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
       <c r="BC29" s="10"/>
     </row>
     <row r="30" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="20"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="45"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
-      <c r="AT30" s="45"/>
-      <c r="AU30" s="45"/>
-      <c r="AV30" s="45"/>
-      <c r="AW30" s="45"/>
-      <c r="AX30" s="45"/>
-      <c r="AY30" s="45"/>
-      <c r="AZ30" s="45"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
+      <c r="AO30" s="52"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="52"/>
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
       <c r="BC30" s="10"/>
     </row>
     <row r="31" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="45"/>
-      <c r="AQ31" s="45"/>
-      <c r="AR31" s="45"/>
-      <c r="AS31" s="45"/>
-      <c r="AT31" s="45"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="45"/>
-      <c r="AW31" s="45"/>
-      <c r="AX31" s="45"/>
-      <c r="AY31" s="45"/>
-      <c r="AZ31" s="45"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="88"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="88"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="88"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="52"/>
+      <c r="AP31" s="52"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="52"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="52"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="52"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="52"/>
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
       <c r="BC31" s="10"/>
     </row>
     <row r="32" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="77"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="77"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="77"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="45"/>
-      <c r="AK32" s="45"/>
-      <c r="AL32" s="45"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="45"/>
-      <c r="AP32" s="45"/>
-      <c r="AQ32" s="45"/>
-      <c r="AR32" s="45"/>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="45"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="45"/>
-      <c r="AX32" s="45"/>
-      <c r="AY32" s="45"/>
-      <c r="AZ32" s="45"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="88"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
+      <c r="AO32" s="52"/>
+      <c r="AP32" s="52"/>
+      <c r="AQ32" s="52"/>
+      <c r="AR32" s="52"/>
+      <c r="AS32" s="52"/>
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="52"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="52"/>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="52"/>
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
       <c r="BC32" s="10"/>
     </row>
     <row r="33" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="77"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="77"/>
-      <c r="AF33" s="77"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="45"/>
-      <c r="AP33" s="45"/>
-      <c r="AQ33" s="45"/>
-      <c r="AR33" s="45"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="45"/>
-      <c r="AU33" s="45"/>
-      <c r="AV33" s="45"/>
-      <c r="AW33" s="45"/>
-      <c r="AX33" s="45"/>
-      <c r="AY33" s="45"/>
-      <c r="AZ33" s="45"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="88"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="88"/>
+      <c r="AE33" s="88"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="52"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="52"/>
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
       <c r="BC33" s="10"/>
     </row>
     <row r="34" spans="1:55" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="23"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="87"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="87"/>
-      <c r="AB34" s="87"/>
-      <c r="AC34" s="87"/>
-      <c r="AD34" s="87"/>
-      <c r="AE34" s="87"/>
-      <c r="AF34" s="87"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="72"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="72"/>
-      <c r="AL34" s="72"/>
-      <c r="AM34" s="72"/>
-      <c r="AN34" s="72"/>
-      <c r="AO34" s="72"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="72"/>
-      <c r="AR34" s="72"/>
-      <c r="AS34" s="72"/>
-      <c r="AT34" s="72"/>
-      <c r="AU34" s="72"/>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="72"/>
-      <c r="AY34" s="72"/>
-      <c r="AZ34" s="72"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="94"/>
+      <c r="AF34" s="94"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="79"/>
+      <c r="AL34" s="79"/>
+      <c r="AM34" s="79"/>
+      <c r="AN34" s="79"/>
+      <c r="AO34" s="79"/>
+      <c r="AP34" s="79"/>
+      <c r="AQ34" s="79"/>
+      <c r="AR34" s="79"/>
+      <c r="AS34" s="79"/>
+      <c r="AT34" s="79"/>
+      <c r="AU34" s="79"/>
+      <c r="AV34" s="79"/>
+      <c r="AW34" s="79"/>
+      <c r="AX34" s="79"/>
+      <c r="AY34" s="79"/>
+      <c r="AZ34" s="79"/>
       <c r="BA34" s="11"/>
       <c r="BB34" s="11"/>
       <c r="BC34" s="12"/>
@@ -6495,4 +6894,2400 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="3.625" style="1"/>
+    <col min="5" max="8" width="3.625" style="31"/>
+    <col min="9" max="51" width="3.625" style="1"/>
+    <col min="52" max="52" width="3.625" style="1" customWidth="1"/>
+    <col min="53" max="54" width="11.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+    </row>
+    <row r="2" spans="1:55" ht="24" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+    </row>
+    <row r="3" spans="1:55" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+    </row>
+    <row r="4" spans="1:55" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC4" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A5" s="26">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="98"/>
+      <c r="AG5" s="99"/>
+      <c r="AH5" s="99"/>
+      <c r="AI5" s="99"/>
+      <c r="AJ5" s="99"/>
+      <c r="AK5" s="99"/>
+      <c r="AL5" s="99"/>
+      <c r="AM5" s="99"/>
+      <c r="AN5" s="99"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="99"/>
+      <c r="AQ5" s="99"/>
+      <c r="AR5" s="99"/>
+      <c r="AS5" s="99"/>
+      <c r="AT5" s="99"/>
+      <c r="AU5" s="99"/>
+      <c r="AV5" s="99"/>
+      <c r="AW5" s="99"/>
+      <c r="AX5" s="99"/>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="99"/>
+      <c r="BA5" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="29"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A6" s="26">
+        <f t="shared" ref="A6:A27" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97">
+        <v>5</v>
+      </c>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="99"/>
+      <c r="AK6" s="99"/>
+      <c r="AL6" s="99"/>
+      <c r="AM6" s="99"/>
+      <c r="AN6" s="99"/>
+      <c r="AO6" s="99"/>
+      <c r="AP6" s="99"/>
+      <c r="AQ6" s="99"/>
+      <c r="AR6" s="99"/>
+      <c r="AS6" s="99"/>
+      <c r="AT6" s="99"/>
+      <c r="AU6" s="99"/>
+      <c r="AV6" s="99"/>
+      <c r="AW6" s="99"/>
+      <c r="AX6" s="99"/>
+      <c r="AY6" s="99"/>
+      <c r="AZ6" s="99"/>
+      <c r="BA6" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB6" s="28"/>
+      <c r="BC6" s="29"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A7" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97">
+        <v>2</v>
+      </c>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="99"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="99"/>
+      <c r="AL7" s="99"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="99"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="99"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="99"/>
+      <c r="AS7" s="99"/>
+      <c r="AT7" s="99"/>
+      <c r="AU7" s="99"/>
+      <c r="AV7" s="99"/>
+      <c r="AW7" s="99"/>
+      <c r="AX7" s="99"/>
+      <c r="AY7" s="99"/>
+      <c r="AZ7" s="99"/>
+      <c r="BA7" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="29"/>
+    </row>
+    <row r="8" spans="1:55" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97">
+        <v>3</v>
+      </c>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="99"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="99"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="99"/>
+      <c r="AR8" s="99"/>
+      <c r="AS8" s="99"/>
+      <c r="AT8" s="99"/>
+      <c r="AU8" s="99"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="99"/>
+      <c r="AX8" s="99"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="99"/>
+      <c r="BA8" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="29"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A9" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97">
+        <v>4</v>
+      </c>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="99"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="99"/>
+      <c r="AZ9" s="99"/>
+      <c r="BA9" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB9" s="28"/>
+      <c r="BC9" s="29"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A10" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97">
+        <v>2</v>
+      </c>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="109"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="99"/>
+      <c r="AV10" s="99"/>
+      <c r="AW10" s="99"/>
+      <c r="AX10" s="99"/>
+      <c r="AY10" s="99"/>
+      <c r="AZ10" s="99"/>
+      <c r="BA10" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="29"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A11" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97">
+        <v>3</v>
+      </c>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="99"/>
+      <c r="AV11" s="99"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="99"/>
+      <c r="AY11" s="99"/>
+      <c r="AZ11" s="99"/>
+      <c r="BA11" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="29"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A12" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="99"/>
+      <c r="AT12" s="99"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="99"/>
+      <c r="AY12" s="99"/>
+      <c r="AZ12" s="99"/>
+      <c r="BA12" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB12" s="28"/>
+      <c r="BC12" s="29"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A13" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="99"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="99"/>
+      <c r="AS13" s="99"/>
+      <c r="AT13" s="99"/>
+      <c r="AU13" s="99"/>
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="99"/>
+      <c r="AY13" s="99"/>
+      <c r="AZ13" s="99"/>
+      <c r="BA13" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="29"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A14" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="99"/>
+      <c r="AS14" s="99"/>
+      <c r="AT14" s="99"/>
+      <c r="AU14" s="99"/>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="99"/>
+      <c r="AX14" s="99"/>
+      <c r="AY14" s="99"/>
+      <c r="AZ14" s="99"/>
+      <c r="BA14" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="29"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A15" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="99"/>
+      <c r="AJ15" s="99"/>
+      <c r="AK15" s="99"/>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="99"/>
+      <c r="AN15" s="99"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="99"/>
+      <c r="AQ15" s="99"/>
+      <c r="AR15" s="99"/>
+      <c r="AS15" s="99"/>
+      <c r="AT15" s="99"/>
+      <c r="AU15" s="99"/>
+      <c r="AV15" s="99"/>
+      <c r="AW15" s="99"/>
+      <c r="AX15" s="99"/>
+      <c r="AY15" s="99"/>
+      <c r="AZ15" s="99"/>
+      <c r="BA15" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="29"/>
+    </row>
+    <row r="16" spans="1:55" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="99"/>
+      <c r="AS16" s="99"/>
+      <c r="AT16" s="99"/>
+      <c r="AU16" s="99"/>
+      <c r="AV16" s="99"/>
+      <c r="AW16" s="99"/>
+      <c r="AX16" s="99"/>
+      <c r="AY16" s="99"/>
+      <c r="AZ16" s="99"/>
+      <c r="BA16" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="29"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A17" s="26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="108"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="109"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="99"/>
+      <c r="AS17" s="99"/>
+      <c r="AT17" s="99"/>
+      <c r="AU17" s="99"/>
+      <c r="AV17" s="99"/>
+      <c r="AW17" s="99"/>
+      <c r="AX17" s="99"/>
+      <c r="AY17" s="99"/>
+      <c r="AZ17" s="99"/>
+      <c r="BA17" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB17" s="28"/>
+      <c r="BC17" s="29"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A18" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="110"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="99"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="99"/>
+      <c r="AQ18" s="99"/>
+      <c r="AR18" s="99"/>
+      <c r="AS18" s="99"/>
+      <c r="AT18" s="99"/>
+      <c r="AU18" s="99"/>
+      <c r="AV18" s="99"/>
+      <c r="AW18" s="99"/>
+      <c r="AX18" s="99"/>
+      <c r="AY18" s="99"/>
+      <c r="AZ18" s="99"/>
+      <c r="BA18" s="27">
+        <v>44130</v>
+      </c>
+      <c r="BB18" s="28"/>
+      <c r="BC18" s="29"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A19" s="26"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="99"/>
+      <c r="AS19" s="99"/>
+      <c r="AT19" s="99"/>
+      <c r="AU19" s="99"/>
+      <c r="AV19" s="99"/>
+      <c r="AW19" s="99"/>
+      <c r="AX19" s="99"/>
+      <c r="AY19" s="99"/>
+      <c r="AZ19" s="99"/>
+      <c r="BA19" s="27"/>
+      <c r="BB19" s="28"/>
+      <c r="BC19" s="29"/>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A20" s="26"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="99"/>
+      <c r="AT20" s="99"/>
+      <c r="AU20" s="99"/>
+      <c r="AV20" s="99"/>
+      <c r="AW20" s="99"/>
+      <c r="AX20" s="99"/>
+      <c r="AY20" s="99"/>
+      <c r="AZ20" s="99"/>
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="28"/>
+      <c r="BC20" s="29"/>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A21" s="26"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="99"/>
+      <c r="AN21" s="99"/>
+      <c r="AO21" s="99"/>
+      <c r="AP21" s="99"/>
+      <c r="AQ21" s="99"/>
+      <c r="AR21" s="99"/>
+      <c r="AS21" s="99"/>
+      <c r="AT21" s="99"/>
+      <c r="AU21" s="99"/>
+      <c r="AV21" s="99"/>
+      <c r="AW21" s="99"/>
+      <c r="AX21" s="99"/>
+      <c r="AY21" s="99"/>
+      <c r="AZ21" s="99"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="28"/>
+      <c r="BC21" s="29"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A22" s="26"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="99"/>
+      <c r="AT22" s="99"/>
+      <c r="AU22" s="99"/>
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
+      <c r="AY22" s="99"/>
+      <c r="AZ22" s="99"/>
+      <c r="BA22" s="27"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="29"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A23" s="26"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="99"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="99"/>
+      <c r="AP23" s="99"/>
+      <c r="AQ23" s="99"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="99"/>
+      <c r="AT23" s="99"/>
+      <c r="AU23" s="99"/>
+      <c r="AV23" s="99"/>
+      <c r="AW23" s="99"/>
+      <c r="AX23" s="99"/>
+      <c r="AY23" s="99"/>
+      <c r="AZ23" s="99"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="28"/>
+      <c r="BC23" s="29"/>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A24" s="26"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="104"/>
+      <c r="AH24" s="102"/>
+      <c r="AI24" s="102"/>
+      <c r="AJ24" s="102"/>
+      <c r="AK24" s="102"/>
+      <c r="AL24" s="102"/>
+      <c r="AM24" s="102"/>
+      <c r="AN24" s="102"/>
+      <c r="AO24" s="102"/>
+      <c r="AP24" s="102"/>
+      <c r="AQ24" s="102"/>
+      <c r="AR24" s="102"/>
+      <c r="AS24" s="102"/>
+      <c r="AT24" s="102"/>
+      <c r="AU24" s="102"/>
+      <c r="AV24" s="102"/>
+      <c r="AW24" s="102"/>
+      <c r="AX24" s="102"/>
+      <c r="AY24" s="102"/>
+      <c r="AZ24" s="103"/>
+      <c r="BA24" s="27"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="29"/>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A25" s="26"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="102"/>
+      <c r="AI25" s="102"/>
+      <c r="AJ25" s="102"/>
+      <c r="AK25" s="102"/>
+      <c r="AL25" s="102"/>
+      <c r="AM25" s="102"/>
+      <c r="AN25" s="102"/>
+      <c r="AO25" s="102"/>
+      <c r="AP25" s="102"/>
+      <c r="AQ25" s="102"/>
+      <c r="AR25" s="102"/>
+      <c r="AS25" s="102"/>
+      <c r="AT25" s="102"/>
+      <c r="AU25" s="102"/>
+      <c r="AV25" s="102"/>
+      <c r="AW25" s="102"/>
+      <c r="AX25" s="102"/>
+      <c r="AY25" s="102"/>
+      <c r="AZ25" s="103"/>
+      <c r="BA25" s="27"/>
+      <c r="BB25" s="28"/>
+      <c r="BC25" s="29"/>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A26" s="20"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="88"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="88"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="52"/>
+      <c r="AO26" s="52"/>
+      <c r="AP26" s="52"/>
+      <c r="AQ26" s="52"/>
+      <c r="AR26" s="52"/>
+      <c r="AS26" s="52"/>
+      <c r="AT26" s="52"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="52"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="52"/>
+      <c r="BA26" s="25"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="10"/>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A27" s="20"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="88"/>
+      <c r="AD27" s="88"/>
+      <c r="AE27" s="88"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="52"/>
+      <c r="BA27" s="25"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="10"/>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A28" s="20"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="88"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="88"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
+      <c r="AO28" s="52"/>
+      <c r="AP28" s="52"/>
+      <c r="AQ28" s="52"/>
+      <c r="AR28" s="52"/>
+      <c r="AS28" s="52"/>
+      <c r="AT28" s="52"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="52"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="52"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="10"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A29" s="20"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
+      <c r="AO29" s="52"/>
+      <c r="AP29" s="52"/>
+      <c r="AQ29" s="52"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="52"/>
+      <c r="AT29" s="52"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="52"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="52"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="9"/>
+      <c r="BC29" s="10"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A30" s="20"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
+      <c r="AO30" s="52"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="52"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="9"/>
+      <c r="BC30" s="10"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A31" s="20"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="88"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="88"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="88"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="52"/>
+      <c r="AP31" s="52"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="52"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="52"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="52"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="52"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="10"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A32" s="20"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="88"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
+      <c r="AO32" s="52"/>
+      <c r="AP32" s="52"/>
+      <c r="AQ32" s="52"/>
+      <c r="AR32" s="52"/>
+      <c r="AS32" s="52"/>
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="52"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="52"/>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="52"/>
+      <c r="BA32" s="9"/>
+      <c r="BB32" s="9"/>
+      <c r="BC32" s="10"/>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A33" s="20"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="88"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="88"/>
+      <c r="AE33" s="88"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="52"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="52"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="10"/>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="A34" s="20"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="88"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="88"/>
+      <c r="AD34" s="88"/>
+      <c r="AE34" s="88"/>
+      <c r="AF34" s="88"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="52"/>
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="52"/>
+      <c r="AN34" s="52"/>
+      <c r="AO34" s="52"/>
+      <c r="AP34" s="52"/>
+      <c r="AQ34" s="52"/>
+      <c r="AR34" s="52"/>
+      <c r="AS34" s="52"/>
+      <c r="AT34" s="52"/>
+      <c r="AU34" s="52"/>
+      <c r="AV34" s="52"/>
+      <c r="AW34" s="52"/>
+      <c r="AX34" s="52"/>
+      <c r="AY34" s="52"/>
+      <c r="AZ34" s="52"/>
+      <c r="BA34" s="9"/>
+      <c r="BB34" s="9"/>
+      <c r="BC34" s="10"/>
+    </row>
+    <row r="35" spans="1:55" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="23"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
+      <c r="AF35" s="94"/>
+      <c r="AG35" s="79"/>
+      <c r="AH35" s="79"/>
+      <c r="AI35" s="79"/>
+      <c r="AJ35" s="79"/>
+      <c r="AK35" s="79"/>
+      <c r="AL35" s="79"/>
+      <c r="AM35" s="79"/>
+      <c r="AN35" s="79"/>
+      <c r="AO35" s="79"/>
+      <c r="AP35" s="79"/>
+      <c r="AQ35" s="79"/>
+      <c r="AR35" s="79"/>
+      <c r="AS35" s="79"/>
+      <c r="AT35" s="79"/>
+      <c r="AU35" s="79"/>
+      <c r="AV35" s="79"/>
+      <c r="AW35" s="79"/>
+      <c r="AX35" s="79"/>
+      <c r="AY35" s="79"/>
+      <c r="AZ35" s="79"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="12"/>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.4">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:BC35">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="8" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
+    <filterColumn colId="22" showButton="0"/>
+    <filterColumn colId="23" showButton="0"/>
+    <filterColumn colId="24" showButton="0"/>
+    <filterColumn colId="25" showButton="0"/>
+    <filterColumn colId="26" showButton="0"/>
+    <filterColumn colId="27" showButton="0"/>
+    <filterColumn colId="28" showButton="0"/>
+    <filterColumn colId="29" showButton="0"/>
+    <filterColumn colId="30" showButton="0"/>
+    <filterColumn colId="32" showButton="0"/>
+    <filterColumn colId="33" showButton="0"/>
+    <filterColumn colId="34" showButton="0"/>
+    <filterColumn colId="35" showButton="0"/>
+    <filterColumn colId="36" showButton="0"/>
+    <filterColumn colId="37" showButton="0"/>
+    <filterColumn colId="38" showButton="0"/>
+    <filterColumn colId="39" showButton="0"/>
+    <filterColumn colId="40" showButton="0"/>
+    <filterColumn colId="41" showButton="0"/>
+    <filterColumn colId="42" showButton="0"/>
+    <filterColumn colId="43" showButton="0"/>
+    <filterColumn colId="44" showButton="0"/>
+    <filterColumn colId="45" showButton="0"/>
+    <filterColumn colId="46" showButton="0"/>
+    <filterColumn colId="47" showButton="0"/>
+    <filterColumn colId="48" showButton="0"/>
+    <filterColumn colId="49" showButton="0"/>
+    <filterColumn colId="50" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="160">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:AF4"/>
+    <mergeCell ref="AG4:AZ4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:AF5"/>
+    <mergeCell ref="AG5:AZ5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:AF6"/>
+    <mergeCell ref="AG6:AZ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:AF7"/>
+    <mergeCell ref="AG7:AZ7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:AF8"/>
+    <mergeCell ref="AG8:AZ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:AF9"/>
+    <mergeCell ref="AG9:AZ9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:AF10"/>
+    <mergeCell ref="AG10:AZ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:AF11"/>
+    <mergeCell ref="AG11:AZ11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:AF12"/>
+    <mergeCell ref="AG12:AZ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:AF13"/>
+    <mergeCell ref="AG13:AZ13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:AF15"/>
+    <mergeCell ref="AG15:AZ15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:AF16"/>
+    <mergeCell ref="AG16:AZ16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:AF17"/>
+    <mergeCell ref="AG17:AZ17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:AF18"/>
+    <mergeCell ref="AG18:AZ18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="M19:AF19"/>
+    <mergeCell ref="AG19:AZ19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:AF20"/>
+    <mergeCell ref="AG20:AZ20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:AF21"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:AF22"/>
+    <mergeCell ref="AG22:AZ22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:AF23"/>
+    <mergeCell ref="AG23:AZ23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:AF24"/>
+    <mergeCell ref="AG24:AZ24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:AF25"/>
+    <mergeCell ref="AG25:AZ25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:AF26"/>
+    <mergeCell ref="AG26:AZ26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:AF27"/>
+    <mergeCell ref="AG27:AZ27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:AF28"/>
+    <mergeCell ref="AG28:AZ28"/>
+    <mergeCell ref="AG31:AZ31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:AF32"/>
+    <mergeCell ref="AG32:AZ32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:AF29"/>
+    <mergeCell ref="AG29:AZ29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:AF30"/>
+    <mergeCell ref="AG30:AZ30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="M35:AF35"/>
+    <mergeCell ref="AG35:AZ35"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:AF14"/>
+    <mergeCell ref="AG14:AZ14"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:AF33"/>
+    <mergeCell ref="AG33:AZ33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M34:AF34"/>
+    <mergeCell ref="AG34:AZ34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:AF31"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/管理表/【勤怠管理システム】レビュー管理表.xlsx
+++ b/docs/管理表/【勤怠管理システム】レビュー管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81802\Documents\ss-kintai\docs\管理表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE7517E-E438-465E-9D89-987D8B9C9CAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0CD027-C01B-4C6A-87AC-516A2F1E0816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="330" windowWidth="11120" windowHeight="8860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6700" yWindow="820" windowWidth="11120" windowHeight="8860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="119">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -2036,6 +2036,114 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2051,24 +2159,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2078,131 +2171,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2216,38 +2219,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3445,99 +3445,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="61" t="str">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="66" t="str">
         <f>表紙!O10</f>
         <v>勤怠管理システム</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="67" t="s">
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="67"/>
-      <c r="X1" s="68" t="str">
+      <c r="W1" s="59"/>
+      <c r="X1" s="58" t="str">
         <f>表紙!M16</f>
         <v>髙田</v>
       </c>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67" t="s">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="68">
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="58">
         <f>表紙!M17</f>
         <v>44117</v>
       </c>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="67" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="67"/>
-      <c r="X2" s="68" t="str">
+      <c r="W2" s="59"/>
+      <c r="X2" s="58" t="str">
         <f>表紙!U16</f>
         <v>髙田</v>
       </c>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67" t="s">
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="68">
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="58">
         <f>表紙!U17</f>
         <v>44117</v>
       </c>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5"/>
@@ -3638,682 +3638,682 @@
     </row>
     <row r="6" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5"/>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="44" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="44" t="s">
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="46"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="80"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5"/>
-      <c r="B7" s="74">
+      <c r="B7" s="48">
         <v>1</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="69">
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="45">
         <v>44117</v>
       </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="77" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="79"/>
-      <c r="AC7" s="47" t="s">
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="49"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="74"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="7"/>
     </row>
     <row r="8" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="49"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="74"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="49"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="74"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="7"/>
     </row>
     <row r="10" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="49"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="74"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="7"/>
     </row>
     <row r="11" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="49"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="74"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="49"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="74"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="49"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="74"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="7"/>
     </row>
     <row r="14" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="47"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="49"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="74"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="7"/>
     </row>
     <row r="15" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="49"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="72"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="74"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="7"/>
     </row>
     <row r="16" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="49"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="74"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="7"/>
     </row>
     <row r="17" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="52"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="83"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="7"/>
     </row>
     <row r="18" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="49"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="74"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="7"/>
     </row>
     <row r="19" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="49"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="74"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
     </row>
     <row r="20" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="49"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="74"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="7"/>
     </row>
     <row r="21" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="49"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="72"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="74"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="7"/>
     </row>
     <row r="22" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="49"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="74"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
     <row r="23" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="49"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="74"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="7"/>
     </row>
     <row r="24" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="79"/>
+      <c r="Z24" s="79"/>
+      <c r="AA24" s="79"/>
+      <c r="AB24" s="79"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="77"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="7"/>
     </row>
@@ -4389,18 +4389,64 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:AB24"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AC13:AE13"/>
+    <mergeCell ref="AC14:AE14"/>
+    <mergeCell ref="AC15:AE15"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:AB22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:AB23"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:AB20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:AB21"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:AB18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:AB19"/>
+    <mergeCell ref="AC19:AE19"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:AB16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:AB17"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:AB14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:AB15"/>
+    <mergeCell ref="I12:AB12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:AB13"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:AB10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:AB11"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="I6:AB6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
@@ -4417,64 +4463,18 @@
     <mergeCell ref="I7:AB7"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="I12:AB12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:AB13"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:AB10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:AB11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:AB16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:AB17"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:AB14"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:AB15"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:AB18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:AB19"/>
-    <mergeCell ref="AC19:AE19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:AB20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:AB21"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:AB22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:AB23"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:AB24"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AC13:AE13"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="AC15:AE15"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="AC18:AE18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4604,67 +4604,67 @@
       <c r="A4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81" t="s">
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="81"/>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
       <c r="BA4" s="15" t="s">
         <v>27</v>
       </c>
@@ -4680,67 +4680,67 @@
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="88" t="s">
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="85" t="s">
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="85"/>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="85"/>
-      <c r="AU5" s="85"/>
-      <c r="AV5" s="85"/>
-      <c r="AW5" s="85"/>
-      <c r="AX5" s="85"/>
-      <c r="AY5" s="85"/>
-      <c r="AZ5" s="85"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="87"/>
+      <c r="AK5" s="87"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="87"/>
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="87"/>
+      <c r="AQ5" s="87"/>
+      <c r="AR5" s="87"/>
+      <c r="AS5" s="87"/>
+      <c r="AT5" s="87"/>
+      <c r="AU5" s="87"/>
+      <c r="AV5" s="87"/>
+      <c r="AW5" s="87"/>
+      <c r="AX5" s="87"/>
+      <c r="AY5" s="87"/>
+      <c r="AZ5" s="87"/>
       <c r="BA5" s="17">
         <v>44113</v>
       </c>
@@ -4756,67 +4756,67 @@
         <f t="shared" ref="A6:A26" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87" t="s">
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87" t="s">
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88" t="s">
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="88"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="88"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="85" t="s">
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="85"/>
-      <c r="AO6" s="85"/>
-      <c r="AP6" s="85"/>
-      <c r="AQ6" s="85"/>
-      <c r="AR6" s="85"/>
-      <c r="AS6" s="85"/>
-      <c r="AT6" s="85"/>
-      <c r="AU6" s="85"/>
-      <c r="AV6" s="85"/>
-      <c r="AW6" s="85"/>
-      <c r="AX6" s="85"/>
-      <c r="AY6" s="85"/>
-      <c r="AZ6" s="85"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="87"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="87"/>
+      <c r="AR6" s="87"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
+      <c r="AU6" s="87"/>
+      <c r="AV6" s="87"/>
+      <c r="AW6" s="87"/>
+      <c r="AX6" s="87"/>
+      <c r="AY6" s="87"/>
+      <c r="AZ6" s="87"/>
       <c r="BA6" s="17">
         <v>44113</v>
       </c>
@@ -4832,67 +4832,67 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="88" t="s">
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="88"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="88"/>
-      <c r="AC7" s="88"/>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="88"/>
-      <c r="AG7" s="85" t="s">
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="85"/>
-      <c r="AN7" s="85"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="85"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="85"/>
-      <c r="AT7" s="85"/>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="85"/>
-      <c r="AW7" s="85"/>
-      <c r="AX7" s="85"/>
-      <c r="AY7" s="85"/>
-      <c r="AZ7" s="85"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87"/>
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="87"/>
+      <c r="AW7" s="87"/>
+      <c r="AX7" s="87"/>
+      <c r="AY7" s="87"/>
+      <c r="AZ7" s="87"/>
       <c r="BA7" s="17">
         <v>44113</v>
       </c>
@@ -4908,67 +4908,67 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87" t="s">
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88" t="s">
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="85" t="s">
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="85"/>
-      <c r="AZ8" s="85"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="87"/>
+      <c r="AX8" s="87"/>
+      <c r="AY8" s="87"/>
+      <c r="AZ8" s="87"/>
       <c r="BA8" s="17">
         <v>44113</v>
       </c>
@@ -4984,67 +4984,67 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87" t="s">
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88" t="s">
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="88" t="s">
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="85"/>
-      <c r="AN9" s="85"/>
-      <c r="AO9" s="85"/>
-      <c r="AP9" s="85"/>
-      <c r="AQ9" s="85"/>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="85"/>
-      <c r="AT9" s="85"/>
-      <c r="AU9" s="85"/>
-      <c r="AV9" s="85"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="85"/>
-      <c r="AY9" s="85"/>
-      <c r="AZ9" s="85"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="87"/>
+      <c r="AZ9" s="87"/>
       <c r="BA9" s="17">
         <v>44113</v>
       </c>
@@ -5060,67 +5060,67 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88" t="s">
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="88" t="s">
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="86"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="86"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="85"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="85"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="85"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="85"/>
-      <c r="AT10" s="85"/>
-      <c r="AU10" s="85"/>
-      <c r="AV10" s="85"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="85"/>
-      <c r="AY10" s="85"/>
-      <c r="AZ10" s="85"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="87"/>
       <c r="BA10" s="17">
         <v>44113</v>
       </c>
@@ -5136,67 +5136,67 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87" t="s">
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="88" t="s">
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="85" t="s">
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="AH11" s="85"/>
-      <c r="AI11" s="85"/>
-      <c r="AJ11" s="85"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="85"/>
-      <c r="AM11" s="85"/>
-      <c r="AN11" s="85"/>
-      <c r="AO11" s="85"/>
-      <c r="AP11" s="85"/>
-      <c r="AQ11" s="85"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="85"/>
-      <c r="AT11" s="85"/>
-      <c r="AU11" s="85"/>
-      <c r="AV11" s="85"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="85"/>
-      <c r="AY11" s="85"/>
-      <c r="AZ11" s="85"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="87"/>
+      <c r="AS11" s="87"/>
+      <c r="AT11" s="87"/>
+      <c r="AU11" s="87"/>
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AX11" s="87"/>
+      <c r="AY11" s="87"/>
+      <c r="AZ11" s="87"/>
       <c r="BA11" s="17">
         <v>44113</v>
       </c>
@@ -5212,67 +5212,67 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87" t="s">
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88" t="s">
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="85" t="s">
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="AH12" s="85"/>
-      <c r="AI12" s="85"/>
-      <c r="AJ12" s="85"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="85"/>
-      <c r="AM12" s="85"/>
-      <c r="AN12" s="85"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="85"/>
-      <c r="AQ12" s="85"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="85"/>
-      <c r="AT12" s="85"/>
-      <c r="AU12" s="85"/>
-      <c r="AV12" s="85"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="85"/>
-      <c r="AY12" s="85"/>
-      <c r="AZ12" s="85"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="87"/>
+      <c r="AS12" s="87"/>
+      <c r="AT12" s="87"/>
+      <c r="AU12" s="87"/>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="87"/>
+      <c r="AX12" s="87"/>
+      <c r="AY12" s="87"/>
+      <c r="AZ12" s="87"/>
       <c r="BA12" s="17">
         <v>44113</v>
       </c>
@@ -5288,67 +5288,67 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87" t="s">
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87" t="s">
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="88" t="s">
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="88"/>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="88"/>
-      <c r="AG13" s="85" t="s">
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="85"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="85"/>
-      <c r="AM13" s="85"/>
-      <c r="AN13" s="85"/>
-      <c r="AO13" s="85"/>
-      <c r="AP13" s="85"/>
-      <c r="AQ13" s="85"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="85"/>
-      <c r="AT13" s="85"/>
-      <c r="AU13" s="85"/>
-      <c r="AV13" s="85"/>
-      <c r="AW13" s="85"/>
-      <c r="AX13" s="85"/>
-      <c r="AY13" s="85"/>
-      <c r="AZ13" s="85"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="87"/>
+      <c r="AT13" s="87"/>
+      <c r="AU13" s="87"/>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="87"/>
+      <c r="AX13" s="87"/>
+      <c r="AY13" s="87"/>
+      <c r="AZ13" s="87"/>
       <c r="BA13" s="17">
         <v>44113</v>
       </c>
@@ -5364,67 +5364,67 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87" t="s">
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88" t="s">
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="88"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="85" t="s">
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="AH14" s="85"/>
-      <c r="AI14" s="85"/>
-      <c r="AJ14" s="85"/>
-      <c r="AK14" s="85"/>
-      <c r="AL14" s="85"/>
-      <c r="AM14" s="85"/>
-      <c r="AN14" s="85"/>
-      <c r="AO14" s="85"/>
-      <c r="AP14" s="85"/>
-      <c r="AQ14" s="85"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="85"/>
-      <c r="AT14" s="85"/>
-      <c r="AU14" s="85"/>
-      <c r="AV14" s="85"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="85"/>
-      <c r="AY14" s="85"/>
-      <c r="AZ14" s="85"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="87"/>
+      <c r="AU14" s="87"/>
+      <c r="AV14" s="87"/>
+      <c r="AW14" s="87"/>
+      <c r="AX14" s="87"/>
+      <c r="AY14" s="87"/>
+      <c r="AZ14" s="87"/>
       <c r="BA14" s="17">
         <v>44113</v>
       </c>
@@ -5440,67 +5440,67 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87" t="s">
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="88" t="s">
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="88"/>
-      <c r="AA15" s="88"/>
-      <c r="AB15" s="88"/>
-      <c r="AC15" s="88"/>
-      <c r="AD15" s="88"/>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="85" t="s">
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AH15" s="85"/>
-      <c r="AI15" s="85"/>
-      <c r="AJ15" s="85"/>
-      <c r="AK15" s="85"/>
-      <c r="AL15" s="85"/>
-      <c r="AM15" s="85"/>
-      <c r="AN15" s="85"/>
-      <c r="AO15" s="85"/>
-      <c r="AP15" s="85"/>
-      <c r="AQ15" s="85"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="85"/>
-      <c r="AT15" s="85"/>
-      <c r="AU15" s="85"/>
-      <c r="AV15" s="85"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="85"/>
-      <c r="AY15" s="85"/>
-      <c r="AZ15" s="85"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="87"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="87"/>
+      <c r="AX15" s="87"/>
+      <c r="AY15" s="87"/>
+      <c r="AZ15" s="87"/>
       <c r="BA15" s="17">
         <v>44113</v>
       </c>
@@ -5516,67 +5516,67 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87" t="s">
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="88" t="s">
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="85" t="s">
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="86"/>
+      <c r="U16" s="86"/>
+      <c r="V16" s="86"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="86"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="86"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="86"/>
+      <c r="AG16" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="85"/>
-      <c r="AJ16" s="85"/>
-      <c r="AK16" s="85"/>
-      <c r="AL16" s="85"/>
-      <c r="AM16" s="85"/>
-      <c r="AN16" s="85"/>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="85"/>
-      <c r="AQ16" s="85"/>
-      <c r="AR16" s="85"/>
-      <c r="AS16" s="85"/>
-      <c r="AT16" s="85"/>
-      <c r="AU16" s="85"/>
-      <c r="AV16" s="85"/>
-      <c r="AW16" s="85"/>
-      <c r="AX16" s="85"/>
-      <c r="AY16" s="85"/>
-      <c r="AZ16" s="85"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="87"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="87"/>
+      <c r="AZ16" s="87"/>
       <c r="BA16" s="17">
         <v>44113</v>
       </c>
@@ -5592,67 +5592,67 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87" t="s">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87" t="s">
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="88" t="s">
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="88"/>
-      <c r="AA17" s="88"/>
-      <c r="AB17" s="88"/>
-      <c r="AC17" s="88"/>
-      <c r="AD17" s="88"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="90" t="s">
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="86"/>
+      <c r="U17" s="86"/>
+      <c r="V17" s="86"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
+      <c r="AC17" s="86"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="86"/>
+      <c r="AF17" s="86"/>
+      <c r="AG17" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="85"/>
-      <c r="AK17" s="85"/>
-      <c r="AL17" s="85"/>
-      <c r="AM17" s="85"/>
-      <c r="AN17" s="85"/>
-      <c r="AO17" s="85"/>
-      <c r="AP17" s="85"/>
-      <c r="AQ17" s="85"/>
-      <c r="AR17" s="85"/>
-      <c r="AS17" s="85"/>
-      <c r="AT17" s="85"/>
-      <c r="AU17" s="85"/>
-      <c r="AV17" s="85"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="85"/>
-      <c r="AY17" s="85"/>
-      <c r="AZ17" s="85"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="87"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="87"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="87"/>
+      <c r="AU17" s="87"/>
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87"/>
+      <c r="AY17" s="87"/>
+      <c r="AZ17" s="87"/>
       <c r="BA17" s="17">
         <v>44113</v>
       </c>
@@ -5668,67 +5668,67 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87" t="s">
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="88" t="s">
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="85" t="s">
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="85"/>
-      <c r="AL18" s="85"/>
-      <c r="AM18" s="85"/>
-      <c r="AN18" s="85"/>
-      <c r="AO18" s="85"/>
-      <c r="AP18" s="85"/>
-      <c r="AQ18" s="85"/>
-      <c r="AR18" s="85"/>
-      <c r="AS18" s="85"/>
-      <c r="AT18" s="85"/>
-      <c r="AU18" s="85"/>
-      <c r="AV18" s="85"/>
-      <c r="AW18" s="85"/>
-      <c r="AX18" s="85"/>
-      <c r="AY18" s="85"/>
-      <c r="AZ18" s="85"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="87"/>
+      <c r="AM18" s="87"/>
+      <c r="AN18" s="87"/>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="87"/>
+      <c r="AS18" s="87"/>
+      <c r="AT18" s="87"/>
+      <c r="AU18" s="87"/>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="87"/>
+      <c r="AY18" s="87"/>
+      <c r="AZ18" s="87"/>
       <c r="BA18" s="17">
         <v>44117</v>
       </c>
@@ -5744,67 +5744,67 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87" t="s">
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="88" t="s">
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="88"/>
-      <c r="AD19" s="88"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="85" t="s">
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="AH19" s="85"/>
-      <c r="AI19" s="85"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="85"/>
-      <c r="AL19" s="85"/>
-      <c r="AM19" s="85"/>
-      <c r="AN19" s="85"/>
-      <c r="AO19" s="85"/>
-      <c r="AP19" s="85"/>
-      <c r="AQ19" s="85"/>
-      <c r="AR19" s="85"/>
-      <c r="AS19" s="85"/>
-      <c r="AT19" s="85"/>
-      <c r="AU19" s="85"/>
-      <c r="AV19" s="85"/>
-      <c r="AW19" s="85"/>
-      <c r="AX19" s="85"/>
-      <c r="AY19" s="85"/>
-      <c r="AZ19" s="85"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="87"/>
+      <c r="AU19" s="87"/>
+      <c r="AV19" s="87"/>
+      <c r="AW19" s="87"/>
+      <c r="AX19" s="87"/>
+      <c r="AY19" s="87"/>
+      <c r="AZ19" s="87"/>
       <c r="BA19" s="17">
         <v>44117</v>
       </c>
@@ -5820,67 +5820,67 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87" t="s">
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87" t="s">
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="88" t="s">
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="85" t="s">
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="AH20" s="85"/>
-      <c r="AI20" s="85"/>
-      <c r="AJ20" s="85"/>
-      <c r="AK20" s="85"/>
-      <c r="AL20" s="85"/>
-      <c r="AM20" s="85"/>
-      <c r="AN20" s="85"/>
-      <c r="AO20" s="85"/>
-      <c r="AP20" s="85"/>
-      <c r="AQ20" s="85"/>
-      <c r="AR20" s="85"/>
-      <c r="AS20" s="85"/>
-      <c r="AT20" s="85"/>
-      <c r="AU20" s="85"/>
-      <c r="AV20" s="85"/>
-      <c r="AW20" s="85"/>
-      <c r="AX20" s="85"/>
-      <c r="AY20" s="85"/>
-      <c r="AZ20" s="85"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="87"/>
+      <c r="AL20" s="87"/>
+      <c r="AM20" s="87"/>
+      <c r="AN20" s="87"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
+      <c r="AQ20" s="87"/>
+      <c r="AR20" s="87"/>
+      <c r="AS20" s="87"/>
+      <c r="AT20" s="87"/>
+      <c r="AU20" s="87"/>
+      <c r="AV20" s="87"/>
+      <c r="AW20" s="87"/>
+      <c r="AX20" s="87"/>
+      <c r="AY20" s="87"/>
+      <c r="AZ20" s="87"/>
       <c r="BA20" s="24">
         <v>44117</v>
       </c>
@@ -5896,67 +5896,67 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87" t="s">
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87" t="s">
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="88" t="s">
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="85" t="s">
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="AH21" s="85"/>
-      <c r="AI21" s="85"/>
-      <c r="AJ21" s="85"/>
-      <c r="AK21" s="85"/>
-      <c r="AL21" s="85"/>
-      <c r="AM21" s="85"/>
-      <c r="AN21" s="85"/>
-      <c r="AO21" s="85"/>
-      <c r="AP21" s="85"/>
-      <c r="AQ21" s="85"/>
-      <c r="AR21" s="85"/>
-      <c r="AS21" s="85"/>
-      <c r="AT21" s="85"/>
-      <c r="AU21" s="85"/>
-      <c r="AV21" s="85"/>
-      <c r="AW21" s="85"/>
-      <c r="AX21" s="85"/>
-      <c r="AY21" s="85"/>
-      <c r="AZ21" s="85"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="87"/>
+      <c r="AT21" s="87"/>
+      <c r="AU21" s="87"/>
+      <c r="AV21" s="87"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="87"/>
+      <c r="AZ21" s="87"/>
       <c r="BA21" s="17">
         <v>44117</v>
       </c>
@@ -5972,67 +5972,67 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87" t="s">
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87" t="s">
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="88" t="s">
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="85" t="s">
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="85"/>
-      <c r="AM22" s="85"/>
-      <c r="AN22" s="85"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="85"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="85"/>
-      <c r="AY22" s="85"/>
-      <c r="AZ22" s="85"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="87"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="87"/>
+      <c r="AL22" s="87"/>
+      <c r="AM22" s="87"/>
+      <c r="AN22" s="87"/>
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="87"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="87"/>
+      <c r="AS22" s="87"/>
+      <c r="AT22" s="87"/>
+      <c r="AU22" s="87"/>
+      <c r="AV22" s="87"/>
+      <c r="AW22" s="87"/>
+      <c r="AX22" s="87"/>
+      <c r="AY22" s="87"/>
+      <c r="AZ22" s="87"/>
       <c r="BA22" s="17">
         <v>44117</v>
       </c>
@@ -6048,67 +6048,67 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87" t="s">
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87" t="s">
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="88" t="s">
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="94" t="s">
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="92"/>
-      <c r="AK23" s="92"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="92"/>
-      <c r="AN23" s="92"/>
-      <c r="AO23" s="92"/>
-      <c r="AP23" s="92"/>
-      <c r="AQ23" s="92"/>
-      <c r="AR23" s="92"/>
-      <c r="AS23" s="92"/>
-      <c r="AT23" s="92"/>
-      <c r="AU23" s="92"/>
-      <c r="AV23" s="92"/>
-      <c r="AW23" s="92"/>
-      <c r="AX23" s="92"/>
-      <c r="AY23" s="92"/>
-      <c r="AZ23" s="93"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="90"/>
+      <c r="AJ23" s="90"/>
+      <c r="AK23" s="90"/>
+      <c r="AL23" s="90"/>
+      <c r="AM23" s="90"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="90"/>
+      <c r="AU23" s="90"/>
+      <c r="AV23" s="90"/>
+      <c r="AW23" s="90"/>
+      <c r="AX23" s="90"/>
+      <c r="AY23" s="90"/>
+      <c r="AZ23" s="91"/>
       <c r="BA23" s="17">
         <v>44117</v>
       </c>
@@ -6124,67 +6124,67 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87" t="s">
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87" t="s">
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="88" t="s">
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="88"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="91" t="s">
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="86"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="92"/>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="92"/>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="92"/>
-      <c r="AN24" s="92"/>
-      <c r="AO24" s="92"/>
-      <c r="AP24" s="92"/>
-      <c r="AQ24" s="92"/>
-      <c r="AR24" s="92"/>
-      <c r="AS24" s="92"/>
-      <c r="AT24" s="92"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="92"/>
-      <c r="AW24" s="92"/>
-      <c r="AX24" s="92"/>
-      <c r="AY24" s="92"/>
-      <c r="AZ24" s="93"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="90"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="90"/>
+      <c r="AL24" s="90"/>
+      <c r="AM24" s="90"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AP24" s="90"/>
+      <c r="AQ24" s="90"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="90"/>
+      <c r="AW24" s="90"/>
+      <c r="AX24" s="90"/>
+      <c r="AY24" s="90"/>
+      <c r="AZ24" s="91"/>
       <c r="BA24" s="17">
         <v>44117</v>
       </c>
@@ -6200,65 +6200,65 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="53" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53" t="s">
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="84" t="s">
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="54"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="54"/>
-      <c r="AK25" s="54"/>
-      <c r="AL25" s="54"/>
-      <c r="AM25" s="54"/>
-      <c r="AN25" s="54"/>
-      <c r="AO25" s="54"/>
-      <c r="AP25" s="54"/>
-      <c r="AQ25" s="54"/>
-      <c r="AR25" s="54"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="54"/>
-      <c r="AU25" s="54"/>
-      <c r="AV25" s="54"/>
-      <c r="AW25" s="54"/>
-      <c r="AX25" s="54"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="54"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="88"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="88"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="52"/>
+      <c r="AM25" s="52"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
+      <c r="AU25" s="52"/>
+      <c r="AV25" s="52"/>
+      <c r="AW25" s="52"/>
+      <c r="AX25" s="52"/>
+      <c r="AY25" s="52"/>
+      <c r="AZ25" s="52"/>
       <c r="BA25" s="13">
         <v>44118</v>
       </c>
@@ -6270,65 +6270,65 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="53" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53" t="s">
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="84" t="s">
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="54"/>
-      <c r="AN26" s="54"/>
-      <c r="AO26" s="54"/>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="54"/>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="54"/>
-      <c r="AU26" s="54"/>
-      <c r="AV26" s="54"/>
-      <c r="AW26" s="54"/>
-      <c r="AX26" s="54"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="54"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="88"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="88"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="52"/>
+      <c r="AO26" s="52"/>
+      <c r="AP26" s="52"/>
+      <c r="AQ26" s="52"/>
+      <c r="AR26" s="52"/>
+      <c r="AS26" s="52"/>
+      <c r="AT26" s="52"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="52"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="52"/>
       <c r="BA26" s="13">
         <v>44118</v>
       </c>
@@ -6337,456 +6337,456 @@
     </row>
     <row r="27" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="20"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="84"/>
-      <c r="AC27" s="84"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="54"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="54"/>
-      <c r="AL27" s="54"/>
-      <c r="AM27" s="54"/>
-      <c r="AN27" s="54"/>
-      <c r="AO27" s="54"/>
-      <c r="AP27" s="54"/>
-      <c r="AQ27" s="54"/>
-      <c r="AR27" s="54"/>
-      <c r="AS27" s="54"/>
-      <c r="AT27" s="54"/>
-      <c r="AU27" s="54"/>
-      <c r="AV27" s="54"/>
-      <c r="AW27" s="54"/>
-      <c r="AX27" s="54"/>
-      <c r="AY27" s="54"/>
-      <c r="AZ27" s="54"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="88"/>
+      <c r="AD27" s="88"/>
+      <c r="AE27" s="88"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="52"/>
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
       <c r="BC27" s="10"/>
     </row>
     <row r="28" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="20"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="84"/>
-      <c r="AC28" s="84"/>
-      <c r="AD28" s="84"/>
-      <c r="AE28" s="84"/>
-      <c r="AF28" s="84"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="54"/>
-      <c r="AL28" s="54"/>
-      <c r="AM28" s="54"/>
-      <c r="AN28" s="54"/>
-      <c r="AO28" s="54"/>
-      <c r="AP28" s="54"/>
-      <c r="AQ28" s="54"/>
-      <c r="AR28" s="54"/>
-      <c r="AS28" s="54"/>
-      <c r="AT28" s="54"/>
-      <c r="AU28" s="54"/>
-      <c r="AV28" s="54"/>
-      <c r="AW28" s="54"/>
-      <c r="AX28" s="54"/>
-      <c r="AY28" s="54"/>
-      <c r="AZ28" s="54"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="88"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="88"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
+      <c r="AO28" s="52"/>
+      <c r="AP28" s="52"/>
+      <c r="AQ28" s="52"/>
+      <c r="AR28" s="52"/>
+      <c r="AS28" s="52"/>
+      <c r="AT28" s="52"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="52"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="52"/>
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
       <c r="BC28" s="10"/>
     </row>
     <row r="29" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="54"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="54"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="54"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="54"/>
-      <c r="AS29" s="54"/>
-      <c r="AT29" s="54"/>
-      <c r="AU29" s="54"/>
-      <c r="AV29" s="54"/>
-      <c r="AW29" s="54"/>
-      <c r="AX29" s="54"/>
-      <c r="AY29" s="54"/>
-      <c r="AZ29" s="54"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
+      <c r="AO29" s="52"/>
+      <c r="AP29" s="52"/>
+      <c r="AQ29" s="52"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="52"/>
+      <c r="AT29" s="52"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="52"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="52"/>
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
       <c r="BC29" s="10"/>
     </row>
     <row r="30" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="54"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="54"/>
-      <c r="AO30" s="54"/>
-      <c r="AP30" s="54"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
-      <c r="AT30" s="54"/>
-      <c r="AU30" s="54"/>
-      <c r="AV30" s="54"/>
-      <c r="AW30" s="54"/>
-      <c r="AX30" s="54"/>
-      <c r="AY30" s="54"/>
-      <c r="AZ30" s="54"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
+      <c r="AO30" s="52"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="52"/>
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
       <c r="BC30" s="10"/>
     </row>
     <row r="31" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="20"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
-      <c r="AC31" s="84"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="84"/>
-      <c r="AG31" s="54"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="54"/>
-      <c r="AM31" s="54"/>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="54"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="54"/>
-      <c r="AR31" s="54"/>
-      <c r="AS31" s="54"/>
-      <c r="AT31" s="54"/>
-      <c r="AU31" s="54"/>
-      <c r="AV31" s="54"/>
-      <c r="AW31" s="54"/>
-      <c r="AX31" s="54"/>
-      <c r="AY31" s="54"/>
-      <c r="AZ31" s="54"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="88"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="88"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="88"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="52"/>
+      <c r="AP31" s="52"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="52"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="52"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="52"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="52"/>
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
       <c r="BC31" s="10"/>
     </row>
     <row r="32" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84"/>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="84"/>
-      <c r="AC32" s="84"/>
-      <c r="AD32" s="84"/>
-      <c r="AE32" s="84"/>
-      <c r="AF32" s="84"/>
-      <c r="AG32" s="54"/>
-      <c r="AH32" s="54"/>
-      <c r="AI32" s="54"/>
-      <c r="AJ32" s="54"/>
-      <c r="AK32" s="54"/>
-      <c r="AL32" s="54"/>
-      <c r="AM32" s="54"/>
-      <c r="AN32" s="54"/>
-      <c r="AO32" s="54"/>
-      <c r="AP32" s="54"/>
-      <c r="AQ32" s="54"/>
-      <c r="AR32" s="54"/>
-      <c r="AS32" s="54"/>
-      <c r="AT32" s="54"/>
-      <c r="AU32" s="54"/>
-      <c r="AV32" s="54"/>
-      <c r="AW32" s="54"/>
-      <c r="AX32" s="54"/>
-      <c r="AY32" s="54"/>
-      <c r="AZ32" s="54"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="88"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
+      <c r="AO32" s="52"/>
+      <c r="AP32" s="52"/>
+      <c r="AQ32" s="52"/>
+      <c r="AR32" s="52"/>
+      <c r="AS32" s="52"/>
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="52"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="52"/>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="52"/>
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
       <c r="BC32" s="10"/>
     </row>
     <row r="33" spans="1:55" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="20"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="84"/>
-      <c r="AD33" s="84"/>
-      <c r="AE33" s="84"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="54"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="54"/>
-      <c r="AL33" s="54"/>
-      <c r="AM33" s="54"/>
-      <c r="AN33" s="54"/>
-      <c r="AO33" s="54"/>
-      <c r="AP33" s="54"/>
-      <c r="AQ33" s="54"/>
-      <c r="AR33" s="54"/>
-      <c r="AS33" s="54"/>
-      <c r="AT33" s="54"/>
-      <c r="AU33" s="54"/>
-      <c r="AV33" s="54"/>
-      <c r="AW33" s="54"/>
-      <c r="AX33" s="54"/>
-      <c r="AY33" s="54"/>
-      <c r="AZ33" s="54"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="88"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="88"/>
+      <c r="AE33" s="88"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="52"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="52"/>
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
       <c r="BC33" s="10"/>
     </row>
     <row r="34" spans="1:55" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="23"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="89"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="89"/>
-      <c r="S34" s="89"/>
-      <c r="T34" s="89"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="89"/>
-      <c r="AB34" s="89"/>
-      <c r="AC34" s="89"/>
-      <c r="AD34" s="89"/>
-      <c r="AE34" s="89"/>
-      <c r="AF34" s="89"/>
-      <c r="AG34" s="43"/>
-      <c r="AH34" s="43"/>
-      <c r="AI34" s="43"/>
-      <c r="AJ34" s="43"/>
-      <c r="AK34" s="43"/>
-      <c r="AL34" s="43"/>
-      <c r="AM34" s="43"/>
-      <c r="AN34" s="43"/>
-      <c r="AO34" s="43"/>
-      <c r="AP34" s="43"/>
-      <c r="AQ34" s="43"/>
-      <c r="AR34" s="43"/>
-      <c r="AS34" s="43"/>
-      <c r="AT34" s="43"/>
-      <c r="AU34" s="43"/>
-      <c r="AV34" s="43"/>
-      <c r="AW34" s="43"/>
-      <c r="AX34" s="43"/>
-      <c r="AY34" s="43"/>
-      <c r="AZ34" s="43"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="94"/>
+      <c r="AF34" s="94"/>
+      <c r="AG34" s="79"/>
+      <c r="AH34" s="79"/>
+      <c r="AI34" s="79"/>
+      <c r="AJ34" s="79"/>
+      <c r="AK34" s="79"/>
+      <c r="AL34" s="79"/>
+      <c r="AM34" s="79"/>
+      <c r="AN34" s="79"/>
+      <c r="AO34" s="79"/>
+      <c r="AP34" s="79"/>
+      <c r="AQ34" s="79"/>
+      <c r="AR34" s="79"/>
+      <c r="AS34" s="79"/>
+      <c r="AT34" s="79"/>
+      <c r="AU34" s="79"/>
+      <c r="AV34" s="79"/>
+      <c r="AW34" s="79"/>
+      <c r="AX34" s="79"/>
+      <c r="AY34" s="79"/>
+      <c r="AZ34" s="79"/>
       <c r="BA34" s="11"/>
       <c r="BB34" s="11"/>
       <c r="BC34" s="12"/>
@@ -6878,6 +6878,137 @@
     <filterColumn colId="50" showButton="0"/>
   </autoFilter>
   <mergeCells count="155">
+    <mergeCell ref="M33:AF33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:AF32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="AG33:AZ33"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:AF30"/>
+    <mergeCell ref="AG30:AZ30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:AF31"/>
+    <mergeCell ref="AG31:AZ31"/>
+    <mergeCell ref="AG22:AZ22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:AF29"/>
+    <mergeCell ref="AG34:AZ34"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="M18:AF18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="M19:AF19"/>
+    <mergeCell ref="AG18:AZ18"/>
+    <mergeCell ref="AG19:AZ19"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="M34:AF34"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="M21:AF21"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="AG32:AZ32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="AG16:AZ16"/>
+    <mergeCell ref="AG17:AZ17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M14:AF14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="M15:AF15"/>
+    <mergeCell ref="AG14:AZ14"/>
+    <mergeCell ref="AG15:AZ15"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="M16:AF16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="M17:AF17"/>
+    <mergeCell ref="AG12:AZ12"/>
+    <mergeCell ref="AG13:AZ13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="M10:AF10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="M11:AF11"/>
+    <mergeCell ref="AG10:AZ10"/>
+    <mergeCell ref="AG11:AZ11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="M12:AF12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="M13:AF13"/>
+    <mergeCell ref="AG8:AZ8"/>
+    <mergeCell ref="AG9:AZ9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="M6:AF6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="M7:AF7"/>
+    <mergeCell ref="AG6:AZ6"/>
+    <mergeCell ref="AG7:AZ7"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="M8:AF8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="M9:AF9"/>
+    <mergeCell ref="AG4:AZ4"/>
+    <mergeCell ref="AG5:AZ5"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="M4:AF4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="M5:AF5"/>
+    <mergeCell ref="AG29:AZ29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:AF28"/>
+    <mergeCell ref="AG28:AZ28"/>
+    <mergeCell ref="M26:AF26"/>
+    <mergeCell ref="AG26:AZ26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:AF27"/>
+    <mergeCell ref="AG27:AZ27"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="I20:L20"/>
@@ -6902,137 +7033,6 @@
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="M22:AF22"/>
-    <mergeCell ref="AG29:AZ29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:AF28"/>
-    <mergeCell ref="AG28:AZ28"/>
-    <mergeCell ref="M26:AF26"/>
-    <mergeCell ref="AG26:AZ26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:AF27"/>
-    <mergeCell ref="AG27:AZ27"/>
-    <mergeCell ref="AG4:AZ4"/>
-    <mergeCell ref="AG5:AZ5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="M4:AF4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="M5:AF5"/>
-    <mergeCell ref="AG8:AZ8"/>
-    <mergeCell ref="AG9:AZ9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="M6:AF6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="M7:AF7"/>
-    <mergeCell ref="AG6:AZ6"/>
-    <mergeCell ref="AG7:AZ7"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="M8:AF8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="M9:AF9"/>
-    <mergeCell ref="AG12:AZ12"/>
-    <mergeCell ref="AG13:AZ13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="M10:AF10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="M11:AF11"/>
-    <mergeCell ref="AG10:AZ10"/>
-    <mergeCell ref="AG11:AZ11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="M12:AF12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="M13:AF13"/>
-    <mergeCell ref="AG16:AZ16"/>
-    <mergeCell ref="AG17:AZ17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="M14:AF14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="M15:AF15"/>
-    <mergeCell ref="AG14:AZ14"/>
-    <mergeCell ref="AG15:AZ15"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="M16:AF16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="M17:AF17"/>
-    <mergeCell ref="AG34:AZ34"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="M18:AF18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="M19:AF19"/>
-    <mergeCell ref="AG18:AZ18"/>
-    <mergeCell ref="AG19:AZ19"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="M34:AF34"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="M21:AF21"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="AG32:AZ32"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="M33:AF33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:AF32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="AG21:AZ21"/>
-    <mergeCell ref="AG33:AZ33"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:AF30"/>
-    <mergeCell ref="AG30:AZ30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:AF31"/>
-    <mergeCell ref="AG31:AZ31"/>
-    <mergeCell ref="AG22:AZ22"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:AF29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -7052,9 +7052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG18" sqref="AG18:AZ18"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BB12" sqref="BB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7176,67 +7176,67 @@
       <c r="A4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="81"/>
-      <c r="V4" s="81"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="81"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="81"/>
-      <c r="AF4" s="81"/>
-      <c r="AG4" s="81" t="s">
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="81"/>
-      <c r="AI4" s="81"/>
-      <c r="AJ4" s="81"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="81"/>
-      <c r="AN4" s="81"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="81"/>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="81"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="81"/>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="81"/>
-      <c r="AZ4" s="81"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
       <c r="BA4" s="15" t="s">
         <v>27</v>
       </c>
@@ -7252,67 +7252,67 @@
         <f>ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96" t="s">
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="97" t="s">
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="98" t="s">
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="98"/>
+      <c r="AG5" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="98"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="98"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="98"/>
+      <c r="AH5" s="99"/>
+      <c r="AI5" s="99"/>
+      <c r="AJ5" s="99"/>
+      <c r="AK5" s="99"/>
+      <c r="AL5" s="99"/>
+      <c r="AM5" s="99"/>
+      <c r="AN5" s="99"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="99"/>
+      <c r="AQ5" s="99"/>
+      <c r="AR5" s="99"/>
+      <c r="AS5" s="99"/>
+      <c r="AT5" s="99"/>
+      <c r="AU5" s="99"/>
+      <c r="AV5" s="99"/>
+      <c r="AW5" s="99"/>
+      <c r="AX5" s="99"/>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="99"/>
       <c r="BA5" s="27">
         <v>44130</v>
       </c>
@@ -7328,67 +7328,67 @@
         <f t="shared" ref="A6:A18" si="0">ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96" t="s">
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96">
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97">
         <v>5</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="97" t="s">
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="98" t="s">
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="98"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="98"/>
-      <c r="AS6" s="98"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="98"/>
-      <c r="AV6" s="98"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="98"/>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="98"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="99"/>
+      <c r="AK6" s="99"/>
+      <c r="AL6" s="99"/>
+      <c r="AM6" s="99"/>
+      <c r="AN6" s="99"/>
+      <c r="AO6" s="99"/>
+      <c r="AP6" s="99"/>
+      <c r="AQ6" s="99"/>
+      <c r="AR6" s="99"/>
+      <c r="AS6" s="99"/>
+      <c r="AT6" s="99"/>
+      <c r="AU6" s="99"/>
+      <c r="AV6" s="99"/>
+      <c r="AW6" s="99"/>
+      <c r="AX6" s="99"/>
+      <c r="AY6" s="99"/>
+      <c r="AZ6" s="99"/>
       <c r="BA6" s="27">
         <v>44130</v>
       </c>
@@ -7404,67 +7404,67 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96" t="s">
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96">
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97">
         <v>2</v>
       </c>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="97" t="s">
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="98" t="s">
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="98"/>
-      <c r="AQ7" s="98"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="98"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="98"/>
+      <c r="AH7" s="99"/>
+      <c r="AI7" s="99"/>
+      <c r="AJ7" s="99"/>
+      <c r="AK7" s="99"/>
+      <c r="AL7" s="99"/>
+      <c r="AM7" s="99"/>
+      <c r="AN7" s="99"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="99"/>
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="99"/>
+      <c r="AS7" s="99"/>
+      <c r="AT7" s="99"/>
+      <c r="AU7" s="99"/>
+      <c r="AV7" s="99"/>
+      <c r="AW7" s="99"/>
+      <c r="AX7" s="99"/>
+      <c r="AY7" s="99"/>
+      <c r="AZ7" s="99"/>
       <c r="BA7" s="27">
         <v>44130</v>
       </c>
@@ -7480,67 +7480,67 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96">
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97">
         <v>3</v>
       </c>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="97" t="s">
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="97"/>
-      <c r="U8" s="97"/>
-      <c r="V8" s="97"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="98" t="s">
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="98"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="98"/>
-      <c r="AR8" s="98"/>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="98"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="98"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="98"/>
+      <c r="AH8" s="99"/>
+      <c r="AI8" s="99"/>
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="99"/>
+      <c r="AN8" s="99"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="99"/>
+      <c r="AQ8" s="99"/>
+      <c r="AR8" s="99"/>
+      <c r="AS8" s="99"/>
+      <c r="AT8" s="99"/>
+      <c r="AU8" s="99"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="99"/>
+      <c r="AX8" s="99"/>
+      <c r="AY8" s="99"/>
+      <c r="AZ8" s="99"/>
       <c r="BA8" s="27">
         <v>44130</v>
       </c>
@@ -7556,67 +7556,67 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96" t="s">
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96">
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97">
         <v>4</v>
       </c>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="97" t="s">
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="98" t="s">
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="98"/>
-      <c r="AM9" s="98"/>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="98"/>
-      <c r="AP9" s="98"/>
-      <c r="AQ9" s="98"/>
-      <c r="AR9" s="98"/>
-      <c r="AS9" s="98"/>
-      <c r="AT9" s="98"/>
-      <c r="AU9" s="98"/>
-      <c r="AV9" s="98"/>
-      <c r="AW9" s="98"/>
-      <c r="AX9" s="98"/>
-      <c r="AY9" s="98"/>
-      <c r="AZ9" s="98"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="99"/>
+      <c r="AJ9" s="99"/>
+      <c r="AK9" s="99"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="99"/>
+      <c r="AS9" s="99"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="99"/>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="99"/>
+      <c r="AY9" s="99"/>
+      <c r="AZ9" s="99"/>
       <c r="BA9" s="27">
         <v>44130</v>
       </c>
@@ -7632,67 +7632,67 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96">
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97">
         <v>2</v>
       </c>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="99" t="s">
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="100"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="100"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="100"/>
-      <c r="AE10" s="100"/>
-      <c r="AF10" s="101"/>
-      <c r="AG10" s="97" t="s">
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="108"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="109"/>
+      <c r="AG10" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="98"/>
-      <c r="AM10" s="98"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="98"/>
-      <c r="AP10" s="98"/>
-      <c r="AQ10" s="98"/>
-      <c r="AR10" s="98"/>
-      <c r="AS10" s="98"/>
-      <c r="AT10" s="98"/>
-      <c r="AU10" s="98"/>
-      <c r="AV10" s="98"/>
-      <c r="AW10" s="98"/>
-      <c r="AX10" s="98"/>
-      <c r="AY10" s="98"/>
-      <c r="AZ10" s="98"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="99"/>
+      <c r="AJ10" s="99"/>
+      <c r="AK10" s="99"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="99"/>
+      <c r="AN10" s="99"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="99"/>
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="99"/>
+      <c r="AS10" s="99"/>
+      <c r="AT10" s="99"/>
+      <c r="AU10" s="99"/>
+      <c r="AV10" s="99"/>
+      <c r="AW10" s="99"/>
+      <c r="AX10" s="99"/>
+      <c r="AY10" s="99"/>
+      <c r="AZ10" s="99"/>
       <c r="BA10" s="27">
         <v>44130</v>
       </c>
@@ -7708,135 +7708,141 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96">
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97">
         <v>3</v>
       </c>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="97" t="s">
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="98"/>
-      <c r="AH11" s="98"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="98"/>
-      <c r="AK11" s="98"/>
-      <c r="AL11" s="98"/>
-      <c r="AM11" s="98"/>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="98"/>
-      <c r="AP11" s="98"/>
-      <c r="AQ11" s="98"/>
-      <c r="AR11" s="98"/>
-      <c r="AS11" s="98"/>
-      <c r="AT11" s="98"/>
-      <c r="AU11" s="98"/>
-      <c r="AV11" s="98"/>
-      <c r="AW11" s="98"/>
-      <c r="AX11" s="98"/>
-      <c r="AY11" s="98"/>
-      <c r="AZ11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="99"/>
+      <c r="AV11" s="99"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="99"/>
+      <c r="AY11" s="99"/>
+      <c r="AZ11" s="99"/>
       <c r="BA11" s="27">
         <v>44130</v>
       </c>
-      <c r="BB11" s="28"/>
-      <c r="BC11" s="29"/>
+      <c r="BB11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC11" s="29">
+        <v>44131</v>
+      </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96" t="s">
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="97" t="s">
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="98" t="s">
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="98"/>
-      <c r="AK12" s="98"/>
-      <c r="AL12" s="98"/>
-      <c r="AM12" s="98"/>
-      <c r="AN12" s="98"/>
-      <c r="AO12" s="98"/>
-      <c r="AP12" s="98"/>
-      <c r="AQ12" s="98"/>
-      <c r="AR12" s="98"/>
-      <c r="AS12" s="98"/>
-      <c r="AT12" s="98"/>
-      <c r="AU12" s="98"/>
-      <c r="AV12" s="98"/>
-      <c r="AW12" s="98"/>
-      <c r="AX12" s="98"/>
-      <c r="AY12" s="98"/>
-      <c r="AZ12" s="98"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="99"/>
+      <c r="AT12" s="99"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="99"/>
+      <c r="AY12" s="99"/>
+      <c r="AZ12" s="99"/>
       <c r="BA12" s="27">
         <v>44130</v>
       </c>
@@ -7852,63 +7858,63 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96" t="s">
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="97" t="s">
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="98"/>
-      <c r="AH13" s="98"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="98"/>
-      <c r="AK13" s="98"/>
-      <c r="AL13" s="98"/>
-      <c r="AM13" s="98"/>
-      <c r="AN13" s="98"/>
-      <c r="AO13" s="98"/>
-      <c r="AP13" s="98"/>
-      <c r="AQ13" s="98"/>
-      <c r="AR13" s="98"/>
-      <c r="AS13" s="98"/>
-      <c r="AT13" s="98"/>
-      <c r="AU13" s="98"/>
-      <c r="AV13" s="98"/>
-      <c r="AW13" s="98"/>
-      <c r="AX13" s="98"/>
-      <c r="AY13" s="98"/>
-      <c r="AZ13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="99"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="99"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="99"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="99"/>
+      <c r="AS13" s="99"/>
+      <c r="AT13" s="99"/>
+      <c r="AU13" s="99"/>
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="99"/>
+      <c r="AY13" s="99"/>
+      <c r="AZ13" s="99"/>
       <c r="BA13" s="27">
         <v>44130</v>
       </c>
@@ -7920,67 +7926,67 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="96" t="s">
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96" t="s">
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="97" t="s">
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="98" t="s">
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="AH14" s="98"/>
-      <c r="AI14" s="98"/>
-      <c r="AJ14" s="98"/>
-      <c r="AK14" s="98"/>
-      <c r="AL14" s="98"/>
-      <c r="AM14" s="98"/>
-      <c r="AN14" s="98"/>
-      <c r="AO14" s="98"/>
-      <c r="AP14" s="98"/>
-      <c r="AQ14" s="98"/>
-      <c r="AR14" s="98"/>
-      <c r="AS14" s="98"/>
-      <c r="AT14" s="98"/>
-      <c r="AU14" s="98"/>
-      <c r="AV14" s="98"/>
-      <c r="AW14" s="98"/>
-      <c r="AX14" s="98"/>
-      <c r="AY14" s="98"/>
-      <c r="AZ14" s="98"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="99"/>
+      <c r="AJ14" s="99"/>
+      <c r="AK14" s="99"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="99"/>
+      <c r="AS14" s="99"/>
+      <c r="AT14" s="99"/>
+      <c r="AU14" s="99"/>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="99"/>
+      <c r="AX14" s="99"/>
+      <c r="AY14" s="99"/>
+      <c r="AZ14" s="99"/>
       <c r="BA14" s="27">
         <v>44130</v>
       </c>
@@ -7996,67 +8002,67 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="96" t="s">
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96" t="s">
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="97" t="s">
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="98" t="s">
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="AH15" s="98"/>
-      <c r="AI15" s="98"/>
-      <c r="AJ15" s="98"/>
-      <c r="AK15" s="98"/>
-      <c r="AL15" s="98"/>
-      <c r="AM15" s="98"/>
-      <c r="AN15" s="98"/>
-      <c r="AO15" s="98"/>
-      <c r="AP15" s="98"/>
-      <c r="AQ15" s="98"/>
-      <c r="AR15" s="98"/>
-      <c r="AS15" s="98"/>
-      <c r="AT15" s="98"/>
-      <c r="AU15" s="98"/>
-      <c r="AV15" s="98"/>
-      <c r="AW15" s="98"/>
-      <c r="AX15" s="98"/>
-      <c r="AY15" s="98"/>
-      <c r="AZ15" s="98"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="99"/>
+      <c r="AJ15" s="99"/>
+      <c r="AK15" s="99"/>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="99"/>
+      <c r="AN15" s="99"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="99"/>
+      <c r="AQ15" s="99"/>
+      <c r="AR15" s="99"/>
+      <c r="AS15" s="99"/>
+      <c r="AT15" s="99"/>
+      <c r="AU15" s="99"/>
+      <c r="AV15" s="99"/>
+      <c r="AW15" s="99"/>
+      <c r="AX15" s="99"/>
+      <c r="AY15" s="99"/>
+      <c r="AZ15" s="99"/>
       <c r="BA15" s="27">
         <v>44130</v>
       </c>
@@ -8072,67 +8078,67 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="96" t="s">
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96" t="s">
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="97" t="s">
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="98" t="s">
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="98"/>
-      <c r="AJ16" s="98"/>
-      <c r="AK16" s="98"/>
-      <c r="AL16" s="98"/>
-      <c r="AM16" s="98"/>
-      <c r="AN16" s="98"/>
-      <c r="AO16" s="98"/>
-      <c r="AP16" s="98"/>
-      <c r="AQ16" s="98"/>
-      <c r="AR16" s="98"/>
-      <c r="AS16" s="98"/>
-      <c r="AT16" s="98"/>
-      <c r="AU16" s="98"/>
-      <c r="AV16" s="98"/>
-      <c r="AW16" s="98"/>
-      <c r="AX16" s="98"/>
-      <c r="AY16" s="98"/>
-      <c r="AZ16" s="98"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="99"/>
+      <c r="AS16" s="99"/>
+      <c r="AT16" s="99"/>
+      <c r="AU16" s="99"/>
+      <c r="AV16" s="99"/>
+      <c r="AW16" s="99"/>
+      <c r="AX16" s="99"/>
+      <c r="AY16" s="99"/>
+      <c r="AZ16" s="99"/>
       <c r="BA16" s="27">
         <v>44130</v>
       </c>
@@ -8148,67 +8154,67 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96" t="s">
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="102" t="s">
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="99" t="s">
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="100"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="100"/>
-      <c r="AA17" s="100"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="98" t="s">
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="108"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="109"/>
+      <c r="AG17" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="AH17" s="98"/>
-      <c r="AI17" s="98"/>
-      <c r="AJ17" s="98"/>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="98"/>
-      <c r="AM17" s="98"/>
-      <c r="AN17" s="98"/>
-      <c r="AO17" s="98"/>
-      <c r="AP17" s="98"/>
-      <c r="AQ17" s="98"/>
-      <c r="AR17" s="98"/>
-      <c r="AS17" s="98"/>
-      <c r="AT17" s="98"/>
-      <c r="AU17" s="98"/>
-      <c r="AV17" s="98"/>
-      <c r="AW17" s="98"/>
-      <c r="AX17" s="98"/>
-      <c r="AY17" s="98"/>
-      <c r="AZ17" s="98"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="99"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="99"/>
+      <c r="AS17" s="99"/>
+      <c r="AT17" s="99"/>
+      <c r="AU17" s="99"/>
+      <c r="AV17" s="99"/>
+      <c r="AW17" s="99"/>
+      <c r="AX17" s="99"/>
+      <c r="AY17" s="99"/>
+      <c r="AZ17" s="99"/>
       <c r="BA17" s="27">
         <v>44130</v>
       </c>
@@ -8224,65 +8230,65 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="97" t="s">
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="97"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
       <c r="AG18" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="98"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="98"/>
-      <c r="AL18" s="98"/>
-      <c r="AM18" s="98"/>
-      <c r="AN18" s="98"/>
-      <c r="AO18" s="98"/>
-      <c r="AP18" s="98"/>
-      <c r="AQ18" s="98"/>
-      <c r="AR18" s="98"/>
-      <c r="AS18" s="98"/>
-      <c r="AT18" s="98"/>
-      <c r="AU18" s="98"/>
-      <c r="AV18" s="98"/>
-      <c r="AW18" s="98"/>
-      <c r="AX18" s="98"/>
-      <c r="AY18" s="98"/>
-      <c r="AZ18" s="98"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
+      <c r="AK18" s="99"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="99"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="99"/>
+      <c r="AQ18" s="99"/>
+      <c r="AR18" s="99"/>
+      <c r="AS18" s="99"/>
+      <c r="AT18" s="99"/>
+      <c r="AU18" s="99"/>
+      <c r="AV18" s="99"/>
+      <c r="AW18" s="99"/>
+      <c r="AX18" s="99"/>
+      <c r="AY18" s="99"/>
+      <c r="AZ18" s="99"/>
       <c r="BA18" s="27">
         <v>44130</v>
       </c>
@@ -8295,969 +8301,969 @@
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="26"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="98"/>
-      <c r="AH19" s="98"/>
-      <c r="AI19" s="98"/>
-      <c r="AJ19" s="98"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="98"/>
-      <c r="AM19" s="98"/>
-      <c r="AN19" s="98"/>
-      <c r="AO19" s="98"/>
-      <c r="AP19" s="98"/>
-      <c r="AQ19" s="98"/>
-      <c r="AR19" s="98"/>
-      <c r="AS19" s="98"/>
-      <c r="AT19" s="98"/>
-      <c r="AU19" s="98"/>
-      <c r="AV19" s="98"/>
-      <c r="AW19" s="98"/>
-      <c r="AX19" s="98"/>
-      <c r="AY19" s="98"/>
-      <c r="AZ19" s="98"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
+      <c r="AK19" s="99"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="99"/>
+      <c r="AS19" s="99"/>
+      <c r="AT19" s="99"/>
+      <c r="AU19" s="99"/>
+      <c r="AV19" s="99"/>
+      <c r="AW19" s="99"/>
+      <c r="AX19" s="99"/>
+      <c r="AY19" s="99"/>
+      <c r="AZ19" s="99"/>
       <c r="BA19" s="27"/>
       <c r="BB19" s="28"/>
       <c r="BC19" s="29"/>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="98"/>
-      <c r="AM20" s="98"/>
-      <c r="AN20" s="98"/>
-      <c r="AO20" s="98"/>
-      <c r="AP20" s="98"/>
-      <c r="AQ20" s="98"/>
-      <c r="AR20" s="98"/>
-      <c r="AS20" s="98"/>
-      <c r="AT20" s="98"/>
-      <c r="AU20" s="98"/>
-      <c r="AV20" s="98"/>
-      <c r="AW20" s="98"/>
-      <c r="AX20" s="98"/>
-      <c r="AY20" s="98"/>
-      <c r="AZ20" s="98"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="99"/>
+      <c r="AT20" s="99"/>
+      <c r="AU20" s="99"/>
+      <c r="AV20" s="99"/>
+      <c r="AW20" s="99"/>
+      <c r="AX20" s="99"/>
+      <c r="AY20" s="99"/>
+      <c r="AZ20" s="99"/>
       <c r="BA20" s="27"/>
       <c r="BB20" s="28"/>
       <c r="BC20" s="29"/>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="26"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="98"/>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="98"/>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="98"/>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="98"/>
-      <c r="AO21" s="98"/>
-      <c r="AP21" s="98"/>
-      <c r="AQ21" s="98"/>
-      <c r="AR21" s="98"/>
-      <c r="AS21" s="98"/>
-      <c r="AT21" s="98"/>
-      <c r="AU21" s="98"/>
-      <c r="AV21" s="98"/>
-      <c r="AW21" s="98"/>
-      <c r="AX21" s="98"/>
-      <c r="AY21" s="98"/>
-      <c r="AZ21" s="98"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
+      <c r="AK21" s="99"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="99"/>
+      <c r="AN21" s="99"/>
+      <c r="AO21" s="99"/>
+      <c r="AP21" s="99"/>
+      <c r="AQ21" s="99"/>
+      <c r="AR21" s="99"/>
+      <c r="AS21" s="99"/>
+      <c r="AT21" s="99"/>
+      <c r="AU21" s="99"/>
+      <c r="AV21" s="99"/>
+      <c r="AW21" s="99"/>
+      <c r="AX21" s="99"/>
+      <c r="AY21" s="99"/>
+      <c r="AZ21" s="99"/>
       <c r="BA21" s="27"/>
       <c r="BB21" s="28"/>
       <c r="BC21" s="29"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="26"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="98"/>
-      <c r="AI22" s="98"/>
-      <c r="AJ22" s="98"/>
-      <c r="AK22" s="98"/>
-      <c r="AL22" s="98"/>
-      <c r="AM22" s="98"/>
-      <c r="AN22" s="98"/>
-      <c r="AO22" s="98"/>
-      <c r="AP22" s="98"/>
-      <c r="AQ22" s="98"/>
-      <c r="AR22" s="98"/>
-      <c r="AS22" s="98"/>
-      <c r="AT22" s="98"/>
-      <c r="AU22" s="98"/>
-      <c r="AV22" s="98"/>
-      <c r="AW22" s="98"/>
-      <c r="AX22" s="98"/>
-      <c r="AY22" s="98"/>
-      <c r="AZ22" s="98"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
+      <c r="AK22" s="99"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="99"/>
+      <c r="AT22" s="99"/>
+      <c r="AU22" s="99"/>
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
+      <c r="AY22" s="99"/>
+      <c r="AZ22" s="99"/>
       <c r="BA22" s="27"/>
       <c r="BB22" s="28"/>
       <c r="BC22" s="29"/>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="26"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="98"/>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="98"/>
-      <c r="AL23" s="98"/>
-      <c r="AM23" s="98"/>
-      <c r="AN23" s="98"/>
-      <c r="AO23" s="98"/>
-      <c r="AP23" s="98"/>
-      <c r="AQ23" s="98"/>
-      <c r="AR23" s="98"/>
-      <c r="AS23" s="98"/>
-      <c r="AT23" s="98"/>
-      <c r="AU23" s="98"/>
-      <c r="AV23" s="98"/>
-      <c r="AW23" s="98"/>
-      <c r="AX23" s="98"/>
-      <c r="AY23" s="98"/>
-      <c r="AZ23" s="98"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+      <c r="AK23" s="99"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="99"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="99"/>
+      <c r="AP23" s="99"/>
+      <c r="AQ23" s="99"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="99"/>
+      <c r="AT23" s="99"/>
+      <c r="AU23" s="99"/>
+      <c r="AV23" s="99"/>
+      <c r="AW23" s="99"/>
+      <c r="AX23" s="99"/>
+      <c r="AY23" s="99"/>
+      <c r="AZ23" s="99"/>
       <c r="BA23" s="27"/>
       <c r="BB23" s="28"/>
       <c r="BC23" s="29"/>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="26"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="97"/>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="105"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="106"/>
-      <c r="AK24" s="106"/>
-      <c r="AL24" s="106"/>
-      <c r="AM24" s="106"/>
-      <c r="AN24" s="106"/>
-      <c r="AO24" s="106"/>
-      <c r="AP24" s="106"/>
-      <c r="AQ24" s="106"/>
-      <c r="AR24" s="106"/>
-      <c r="AS24" s="106"/>
-      <c r="AT24" s="106"/>
-      <c r="AU24" s="106"/>
-      <c r="AV24" s="106"/>
-      <c r="AW24" s="106"/>
-      <c r="AX24" s="106"/>
-      <c r="AY24" s="106"/>
-      <c r="AZ24" s="107"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="104"/>
+      <c r="AH24" s="102"/>
+      <c r="AI24" s="102"/>
+      <c r="AJ24" s="102"/>
+      <c r="AK24" s="102"/>
+      <c r="AL24" s="102"/>
+      <c r="AM24" s="102"/>
+      <c r="AN24" s="102"/>
+      <c r="AO24" s="102"/>
+      <c r="AP24" s="102"/>
+      <c r="AQ24" s="102"/>
+      <c r="AR24" s="102"/>
+      <c r="AS24" s="102"/>
+      <c r="AT24" s="102"/>
+      <c r="AU24" s="102"/>
+      <c r="AV24" s="102"/>
+      <c r="AW24" s="102"/>
+      <c r="AX24" s="102"/>
+      <c r="AY24" s="102"/>
+      <c r="AZ24" s="103"/>
       <c r="BA24" s="27"/>
       <c r="BB24" s="28"/>
       <c r="BC24" s="29"/>
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="26"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="97"/>
-      <c r="AG25" s="99"/>
-      <c r="AH25" s="106"/>
-      <c r="AI25" s="106"/>
-      <c r="AJ25" s="106"/>
-      <c r="AK25" s="106"/>
-      <c r="AL25" s="106"/>
-      <c r="AM25" s="106"/>
-      <c r="AN25" s="106"/>
-      <c r="AO25" s="106"/>
-      <c r="AP25" s="106"/>
-      <c r="AQ25" s="106"/>
-      <c r="AR25" s="106"/>
-      <c r="AS25" s="106"/>
-      <c r="AT25" s="106"/>
-      <c r="AU25" s="106"/>
-      <c r="AV25" s="106"/>
-      <c r="AW25" s="106"/>
-      <c r="AX25" s="106"/>
-      <c r="AY25" s="106"/>
-      <c r="AZ25" s="107"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="102"/>
+      <c r="AI25" s="102"/>
+      <c r="AJ25" s="102"/>
+      <c r="AK25" s="102"/>
+      <c r="AL25" s="102"/>
+      <c r="AM25" s="102"/>
+      <c r="AN25" s="102"/>
+      <c r="AO25" s="102"/>
+      <c r="AP25" s="102"/>
+      <c r="AQ25" s="102"/>
+      <c r="AR25" s="102"/>
+      <c r="AS25" s="102"/>
+      <c r="AT25" s="102"/>
+      <c r="AU25" s="102"/>
+      <c r="AV25" s="102"/>
+      <c r="AW25" s="102"/>
+      <c r="AX25" s="102"/>
+      <c r="AY25" s="102"/>
+      <c r="AZ25" s="103"/>
       <c r="BA25" s="27"/>
       <c r="BB25" s="28"/>
       <c r="BC25" s="29"/>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="20"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="84"/>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="54"/>
-      <c r="AN26" s="54"/>
-      <c r="AO26" s="54"/>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="54"/>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="54"/>
-      <c r="AU26" s="54"/>
-      <c r="AV26" s="54"/>
-      <c r="AW26" s="54"/>
-      <c r="AX26" s="54"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="54"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="88"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="88"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="52"/>
+      <c r="AO26" s="52"/>
+      <c r="AP26" s="52"/>
+      <c r="AQ26" s="52"/>
+      <c r="AR26" s="52"/>
+      <c r="AS26" s="52"/>
+      <c r="AT26" s="52"/>
+      <c r="AU26" s="52"/>
+      <c r="AV26" s="52"/>
+      <c r="AW26" s="52"/>
+      <c r="AX26" s="52"/>
+      <c r="AY26" s="52"/>
+      <c r="AZ26" s="52"/>
       <c r="BA26" s="25"/>
       <c r="BB26" s="9"/>
       <c r="BC26" s="10"/>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="20"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="84"/>
-      <c r="S27" s="84"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
-      <c r="W27" s="84"/>
-      <c r="X27" s="84"/>
-      <c r="Y27" s="84"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="84"/>
-      <c r="AB27" s="84"/>
-      <c r="AC27" s="84"/>
-      <c r="AD27" s="84"/>
-      <c r="AE27" s="84"/>
-      <c r="AF27" s="84"/>
-      <c r="AG27" s="54"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="54"/>
-      <c r="AL27" s="54"/>
-      <c r="AM27" s="54"/>
-      <c r="AN27" s="54"/>
-      <c r="AO27" s="54"/>
-      <c r="AP27" s="54"/>
-      <c r="AQ27" s="54"/>
-      <c r="AR27" s="54"/>
-      <c r="AS27" s="54"/>
-      <c r="AT27" s="54"/>
-      <c r="AU27" s="54"/>
-      <c r="AV27" s="54"/>
-      <c r="AW27" s="54"/>
-      <c r="AX27" s="54"/>
-      <c r="AY27" s="54"/>
-      <c r="AZ27" s="54"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="88"/>
+      <c r="AD27" s="88"/>
+      <c r="AE27" s="88"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="52"/>
       <c r="BA27" s="25"/>
       <c r="BB27" s="9"/>
       <c r="BC27" s="10"/>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="20"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="84"/>
-      <c r="W28" s="84"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="84"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="84"/>
-      <c r="AB28" s="84"/>
-      <c r="AC28" s="84"/>
-      <c r="AD28" s="84"/>
-      <c r="AE28" s="84"/>
-      <c r="AF28" s="84"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="54"/>
-      <c r="AL28" s="54"/>
-      <c r="AM28" s="54"/>
-      <c r="AN28" s="54"/>
-      <c r="AO28" s="54"/>
-      <c r="AP28" s="54"/>
-      <c r="AQ28" s="54"/>
-      <c r="AR28" s="54"/>
-      <c r="AS28" s="54"/>
-      <c r="AT28" s="54"/>
-      <c r="AU28" s="54"/>
-      <c r="AV28" s="54"/>
-      <c r="AW28" s="54"/>
-      <c r="AX28" s="54"/>
-      <c r="AY28" s="54"/>
-      <c r="AZ28" s="54"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="88"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="88"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="52"/>
+      <c r="AH28" s="52"/>
+      <c r="AI28" s="52"/>
+      <c r="AJ28" s="52"/>
+      <c r="AK28" s="52"/>
+      <c r="AL28" s="52"/>
+      <c r="AM28" s="52"/>
+      <c r="AN28" s="52"/>
+      <c r="AO28" s="52"/>
+      <c r="AP28" s="52"/>
+      <c r="AQ28" s="52"/>
+      <c r="AR28" s="52"/>
+      <c r="AS28" s="52"/>
+      <c r="AT28" s="52"/>
+      <c r="AU28" s="52"/>
+      <c r="AV28" s="52"/>
+      <c r="AW28" s="52"/>
+      <c r="AX28" s="52"/>
+      <c r="AY28" s="52"/>
+      <c r="AZ28" s="52"/>
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
       <c r="BC28" s="10"/>
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="84"/>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="84"/>
-      <c r="AB29" s="84"/>
-      <c r="AC29" s="84"/>
-      <c r="AD29" s="84"/>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="54"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="54"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="54"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="54"/>
-      <c r="AS29" s="54"/>
-      <c r="AT29" s="54"/>
-      <c r="AU29" s="54"/>
-      <c r="AV29" s="54"/>
-      <c r="AW29" s="54"/>
-      <c r="AX29" s="54"/>
-      <c r="AY29" s="54"/>
-      <c r="AZ29" s="54"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="52"/>
+      <c r="AH29" s="52"/>
+      <c r="AI29" s="52"/>
+      <c r="AJ29" s="52"/>
+      <c r="AK29" s="52"/>
+      <c r="AL29" s="52"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="52"/>
+      <c r="AO29" s="52"/>
+      <c r="AP29" s="52"/>
+      <c r="AQ29" s="52"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="52"/>
+      <c r="AT29" s="52"/>
+      <c r="AU29" s="52"/>
+      <c r="AV29" s="52"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
+      <c r="AY29" s="52"/>
+      <c r="AZ29" s="52"/>
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
       <c r="BC29" s="10"/>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="84"/>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="84"/>
-      <c r="AD30" s="84"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="54"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="54"/>
-      <c r="AN30" s="54"/>
-      <c r="AO30" s="54"/>
-      <c r="AP30" s="54"/>
-      <c r="AQ30" s="54"/>
-      <c r="AR30" s="54"/>
-      <c r="AS30" s="54"/>
-      <c r="AT30" s="54"/>
-      <c r="AU30" s="54"/>
-      <c r="AV30" s="54"/>
-      <c r="AW30" s="54"/>
-      <c r="AX30" s="54"/>
-      <c r="AY30" s="54"/>
-      <c r="AZ30" s="54"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="52"/>
+      <c r="AI30" s="52"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="52"/>
+      <c r="AL30" s="52"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="52"/>
+      <c r="AO30" s="52"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="52"/>
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
       <c r="BC30" s="10"/>
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="20"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
-      <c r="AC31" s="84"/>
-      <c r="AD31" s="84"/>
-      <c r="AE31" s="84"/>
-      <c r="AF31" s="84"/>
-      <c r="AG31" s="54"/>
-      <c r="AH31" s="54"/>
-      <c r="AI31" s="54"/>
-      <c r="AJ31" s="54"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="54"/>
-      <c r="AM31" s="54"/>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="54"/>
-      <c r="AP31" s="54"/>
-      <c r="AQ31" s="54"/>
-      <c r="AR31" s="54"/>
-      <c r="AS31" s="54"/>
-      <c r="AT31" s="54"/>
-      <c r="AU31" s="54"/>
-      <c r="AV31" s="54"/>
-      <c r="AW31" s="54"/>
-      <c r="AX31" s="54"/>
-      <c r="AY31" s="54"/>
-      <c r="AZ31" s="54"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="88"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="88"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="88"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="52"/>
+      <c r="AH31" s="52"/>
+      <c r="AI31" s="52"/>
+      <c r="AJ31" s="52"/>
+      <c r="AK31" s="52"/>
+      <c r="AL31" s="52"/>
+      <c r="AM31" s="52"/>
+      <c r="AN31" s="52"/>
+      <c r="AO31" s="52"/>
+      <c r="AP31" s="52"/>
+      <c r="AQ31" s="52"/>
+      <c r="AR31" s="52"/>
+      <c r="AS31" s="52"/>
+      <c r="AT31" s="52"/>
+      <c r="AU31" s="52"/>
+      <c r="AV31" s="52"/>
+      <c r="AW31" s="52"/>
+      <c r="AX31" s="52"/>
+      <c r="AY31" s="52"/>
+      <c r="AZ31" s="52"/>
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
       <c r="BC31" s="10"/>
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="84"/>
-      <c r="W32" s="84"/>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="84"/>
-      <c r="AA32" s="84"/>
-      <c r="AB32" s="84"/>
-      <c r="AC32" s="84"/>
-      <c r="AD32" s="84"/>
-      <c r="AE32" s="84"/>
-      <c r="AF32" s="84"/>
-      <c r="AG32" s="54"/>
-      <c r="AH32" s="54"/>
-      <c r="AI32" s="54"/>
-      <c r="AJ32" s="54"/>
-      <c r="AK32" s="54"/>
-      <c r="AL32" s="54"/>
-      <c r="AM32" s="54"/>
-      <c r="AN32" s="54"/>
-      <c r="AO32" s="54"/>
-      <c r="AP32" s="54"/>
-      <c r="AQ32" s="54"/>
-      <c r="AR32" s="54"/>
-      <c r="AS32" s="54"/>
-      <c r="AT32" s="54"/>
-      <c r="AU32" s="54"/>
-      <c r="AV32" s="54"/>
-      <c r="AW32" s="54"/>
-      <c r="AX32" s="54"/>
-      <c r="AY32" s="54"/>
-      <c r="AZ32" s="54"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="88"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="52"/>
+      <c r="AH32" s="52"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="52"/>
+      <c r="AK32" s="52"/>
+      <c r="AL32" s="52"/>
+      <c r="AM32" s="52"/>
+      <c r="AN32" s="52"/>
+      <c r="AO32" s="52"/>
+      <c r="AP32" s="52"/>
+      <c r="AQ32" s="52"/>
+      <c r="AR32" s="52"/>
+      <c r="AS32" s="52"/>
+      <c r="AT32" s="52"/>
+      <c r="AU32" s="52"/>
+      <c r="AV32" s="52"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="52"/>
+      <c r="AY32" s="52"/>
+      <c r="AZ32" s="52"/>
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
       <c r="BC32" s="10"/>
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="20"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="84"/>
-      <c r="AD33" s="84"/>
-      <c r="AE33" s="84"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="54"/>
-      <c r="AH33" s="54"/>
-      <c r="AI33" s="54"/>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="54"/>
-      <c r="AL33" s="54"/>
-      <c r="AM33" s="54"/>
-      <c r="AN33" s="54"/>
-      <c r="AO33" s="54"/>
-      <c r="AP33" s="54"/>
-      <c r="AQ33" s="54"/>
-      <c r="AR33" s="54"/>
-      <c r="AS33" s="54"/>
-      <c r="AT33" s="54"/>
-      <c r="AU33" s="54"/>
-      <c r="AV33" s="54"/>
-      <c r="AW33" s="54"/>
-      <c r="AX33" s="54"/>
-      <c r="AY33" s="54"/>
-      <c r="AZ33" s="54"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="88"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="88"/>
+      <c r="AE33" s="88"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="52"/>
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52"/>
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52"/>
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="52"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="52"/>
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
       <c r="BC33" s="10"/>
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="84"/>
-      <c r="W34" s="84"/>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
-      <c r="AC34" s="84"/>
-      <c r="AD34" s="84"/>
-      <c r="AE34" s="84"/>
-      <c r="AF34" s="84"/>
-      <c r="AG34" s="54"/>
-      <c r="AH34" s="54"/>
-      <c r="AI34" s="54"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="54"/>
-      <c r="AL34" s="54"/>
-      <c r="AM34" s="54"/>
-      <c r="AN34" s="54"/>
-      <c r="AO34" s="54"/>
-      <c r="AP34" s="54"/>
-      <c r="AQ34" s="54"/>
-      <c r="AR34" s="54"/>
-      <c r="AS34" s="54"/>
-      <c r="AT34" s="54"/>
-      <c r="AU34" s="54"/>
-      <c r="AV34" s="54"/>
-      <c r="AW34" s="54"/>
-      <c r="AX34" s="54"/>
-      <c r="AY34" s="54"/>
-      <c r="AZ34" s="54"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="88"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="88"/>
+      <c r="AD34" s="88"/>
+      <c r="AE34" s="88"/>
+      <c r="AF34" s="88"/>
+      <c r="AG34" s="52"/>
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52"/>
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="52"/>
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="52"/>
+      <c r="AN34" s="52"/>
+      <c r="AO34" s="52"/>
+      <c r="AP34" s="52"/>
+      <c r="AQ34" s="52"/>
+      <c r="AR34" s="52"/>
+      <c r="AS34" s="52"/>
+      <c r="AT34" s="52"/>
+      <c r="AU34" s="52"/>
+      <c r="AV34" s="52"/>
+      <c r="AW34" s="52"/>
+      <c r="AX34" s="52"/>
+      <c r="AY34" s="52"/>
+      <c r="AZ34" s="52"/>
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
       <c r="BC34" s="10"/>
     </row>
     <row r="35" spans="1:55" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="23"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="89"/>
-      <c r="O35" s="89"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="89"/>
-      <c r="S35" s="89"/>
-      <c r="T35" s="89"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="89"/>
-      <c r="Z35" s="89"/>
-      <c r="AA35" s="89"/>
-      <c r="AB35" s="89"/>
-      <c r="AC35" s="89"/>
-      <c r="AD35" s="89"/>
-      <c r="AE35" s="89"/>
-      <c r="AF35" s="89"/>
-      <c r="AG35" s="43"/>
-      <c r="AH35" s="43"/>
-      <c r="AI35" s="43"/>
-      <c r="AJ35" s="43"/>
-      <c r="AK35" s="43"/>
-      <c r="AL35" s="43"/>
-      <c r="AM35" s="43"/>
-      <c r="AN35" s="43"/>
-      <c r="AO35" s="43"/>
-      <c r="AP35" s="43"/>
-      <c r="AQ35" s="43"/>
-      <c r="AR35" s="43"/>
-      <c r="AS35" s="43"/>
-      <c r="AT35" s="43"/>
-      <c r="AU35" s="43"/>
-      <c r="AV35" s="43"/>
-      <c r="AW35" s="43"/>
-      <c r="AX35" s="43"/>
-      <c r="AY35" s="43"/>
-      <c r="AZ35" s="43"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
+      <c r="AF35" s="94"/>
+      <c r="AG35" s="79"/>
+      <c r="AH35" s="79"/>
+      <c r="AI35" s="79"/>
+      <c r="AJ35" s="79"/>
+      <c r="AK35" s="79"/>
+      <c r="AL35" s="79"/>
+      <c r="AM35" s="79"/>
+      <c r="AN35" s="79"/>
+      <c r="AO35" s="79"/>
+      <c r="AP35" s="79"/>
+      <c r="AQ35" s="79"/>
+      <c r="AR35" s="79"/>
+      <c r="AS35" s="79"/>
+      <c r="AT35" s="79"/>
+      <c r="AU35" s="79"/>
+      <c r="AV35" s="79"/>
+      <c r="AW35" s="79"/>
+      <c r="AX35" s="79"/>
+      <c r="AY35" s="79"/>
+      <c r="AZ35" s="79"/>
       <c r="BA35" s="11"/>
       <c r="BB35" s="11"/>
       <c r="BC35" s="12"/>
@@ -9349,6 +9355,142 @@
     <filterColumn colId="50" showButton="0"/>
   </autoFilter>
   <mergeCells count="160">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:AF4"/>
+    <mergeCell ref="AG4:AZ4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:AF5"/>
+    <mergeCell ref="AG5:AZ5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:AF6"/>
+    <mergeCell ref="AG6:AZ6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:AF7"/>
+    <mergeCell ref="AG7:AZ7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:AF8"/>
+    <mergeCell ref="AG8:AZ8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:AF9"/>
+    <mergeCell ref="AG9:AZ9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:AF10"/>
+    <mergeCell ref="AG10:AZ10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:AF11"/>
+    <mergeCell ref="AG11:AZ11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:AF12"/>
+    <mergeCell ref="AG12:AZ12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:AF13"/>
+    <mergeCell ref="AG13:AZ13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:AF15"/>
+    <mergeCell ref="AG15:AZ15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:AF16"/>
+    <mergeCell ref="AG16:AZ16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:AF17"/>
+    <mergeCell ref="AG17:AZ17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:AF18"/>
+    <mergeCell ref="AG18:AZ18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="M19:AF19"/>
+    <mergeCell ref="AG19:AZ19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:AF20"/>
+    <mergeCell ref="AG20:AZ20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:AF21"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:AF22"/>
+    <mergeCell ref="AG22:AZ22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:AF23"/>
+    <mergeCell ref="AG23:AZ23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:AF24"/>
+    <mergeCell ref="AG24:AZ24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:AF25"/>
+    <mergeCell ref="AG25:AZ25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:AF26"/>
+    <mergeCell ref="AG26:AZ26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:AF27"/>
+    <mergeCell ref="AG27:AZ27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:AF28"/>
+    <mergeCell ref="AG28:AZ28"/>
+    <mergeCell ref="AG31:AZ31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:AF32"/>
+    <mergeCell ref="AG32:AZ32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:AF29"/>
+    <mergeCell ref="AG29:AZ29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:AF30"/>
+    <mergeCell ref="AG30:AZ30"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:H35"/>
     <mergeCell ref="I35:L35"/>
@@ -9373,142 +9515,6 @@
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="I31:L31"/>
     <mergeCell ref="M31:AF31"/>
-    <mergeCell ref="AG31:AZ31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:AF32"/>
-    <mergeCell ref="AG32:AZ32"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:AF29"/>
-    <mergeCell ref="AG29:AZ29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:AF30"/>
-    <mergeCell ref="AG30:AZ30"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:AF27"/>
-    <mergeCell ref="AG27:AZ27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:AF28"/>
-    <mergeCell ref="AG28:AZ28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:AF25"/>
-    <mergeCell ref="AG25:AZ25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:AF26"/>
-    <mergeCell ref="AG26:AZ26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:AF23"/>
-    <mergeCell ref="AG23:AZ23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:AF24"/>
-    <mergeCell ref="AG24:AZ24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M21:AF21"/>
-    <mergeCell ref="AG21:AZ21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:AF22"/>
-    <mergeCell ref="AG22:AZ22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M19:AF19"/>
-    <mergeCell ref="AG19:AZ19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:AF20"/>
-    <mergeCell ref="AG20:AZ20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="M17:AF17"/>
-    <mergeCell ref="AG17:AZ17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:AF18"/>
-    <mergeCell ref="AG18:AZ18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:AF15"/>
-    <mergeCell ref="AG15:AZ15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:AF16"/>
-    <mergeCell ref="AG16:AZ16"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:AF12"/>
-    <mergeCell ref="AG12:AZ12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:AF13"/>
-    <mergeCell ref="AG13:AZ13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:AF10"/>
-    <mergeCell ref="AG10:AZ10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:AF11"/>
-    <mergeCell ref="AG11:AZ11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:AF8"/>
-    <mergeCell ref="AG8:AZ8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:AF9"/>
-    <mergeCell ref="AG9:AZ9"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:AF6"/>
-    <mergeCell ref="AG6:AZ6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:AF7"/>
-    <mergeCell ref="AG7:AZ7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:AF4"/>
-    <mergeCell ref="AG4:AZ4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:AF5"/>
-    <mergeCell ref="AG5:AZ5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
